--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10090</v>
+        <v>10215</v>
       </c>
     </row>
     <row r="11">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>13843</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7132</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="18">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4986</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>47419</v>
+        <v>47734</v>
       </c>
     </row>
     <row r="23">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>182889</v>
+        <v>186024</v>
       </c>
     </row>
     <row r="25">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16387</v>
+        <v>16474</v>
       </c>
     </row>
     <row r="38">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24222</v>
+        <v>24407</v>
       </c>
     </row>
     <row r="41">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>68265</v>
+        <v>69377</v>
       </c>
     </row>
     <row r="43">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>7659</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="50">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13482</v>
+        <v>13808</v>
       </c>
     </row>
     <row r="53">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1228</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="58">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>4138</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="71">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>6724</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="72">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>285218</v>
+        <v>287530</v>
       </c>
     </row>
     <row r="76">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>10226</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="85">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>179884</v>
+        <v>182407</v>
       </c>
     </row>
     <row r="88">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>160228</v>
+        <v>163427</v>
       </c>
     </row>
     <row r="89">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>8133</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="94">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>76308</v>
+        <v>77580</v>
       </c>
     </row>
     <row r="98">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>14480</v>
+        <v>14545</v>
       </c>
     </row>
     <row r="100">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>24792</v>
+        <v>24934</v>
       </c>
     </row>
     <row r="108">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>4389</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="111">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>13892</v>
+        <v>14047</v>
       </c>
     </row>
     <row r="116">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>9788</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="117">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>5482</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="118">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>7282</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="122">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5741</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="143">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>6063</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="149">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/02/18</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>14277</v>
+        <v>14386</v>
       </c>
     </row>
     <row r="151">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>63897</v>
+        <v>64264</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>55072</v>
+        <v>55186</v>
       </c>
     </row>
     <row r="157">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>23396</v>
+        <v>23761</v>
       </c>
     </row>
     <row r="172">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>6272</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="182">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>12729</v>
+        <v>12987</v>
       </c>
     </row>
     <row r="189">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>23355</v>
+        <v>23476</v>
       </c>
     </row>
     <row r="191">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>9022</v>
+        <v>9032</v>
       </c>
     </row>
     <row r="196">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>73836</v>
+        <v>74789</v>
       </c>
     </row>
     <row r="198">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>25890</v>
+        <v>25996</v>
       </c>
     </row>
     <row r="200">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>86526</v>
+        <v>88272</v>
       </c>
     </row>
     <row r="210">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>21465</v>
+        <v>21782</v>
       </c>
     </row>
     <row r="213">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>12234</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>52619</v>
+        <v>53481</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>32081</v>
+        <v>32292</v>
       </c>
     </row>
     <row r="217">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4135</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="228">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2023/03/28</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>1484</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="231">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>6830</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="247">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1628</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="262">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>254501</v>
+        <v>255999</v>
       </c>
     </row>
     <row r="265">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>8585</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="268">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>41928</v>
+        <v>42223</v>
       </c>
     </row>
     <row r="277">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>27952</v>
+        <v>28003</v>
       </c>
     </row>
     <row r="281">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>19902</v>
+        <v>20251</v>
       </c>
     </row>
     <row r="283">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>8442</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="287">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>76659</v>
+        <v>78022</v>
       </c>
     </row>
     <row r="295">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>145197</v>
+        <v>147479</v>
       </c>
     </row>
     <row r="296">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>15026</v>
+        <v>15216</v>
       </c>
     </row>
     <row r="297">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>13132</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="298">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>17363</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="306">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/02/18</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>32689</v>
+        <v>33030</v>
       </c>
     </row>
     <row r="317">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10671</v>
+        <v>10721</v>
       </c>
     </row>
     <row r="319">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>106378</v>
+        <v>108417</v>
       </c>
     </row>
     <row r="329">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>10625</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="334">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>9460</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="345">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>8375</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="362">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>21801</v>
+        <v>22045</v>
       </c>
     </row>
     <row r="370">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1320321</v>
+        <v>1342666</v>
       </c>
     </row>
     <row r="376">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>14800</v>
+        <v>14966</v>
       </c>
     </row>
     <row r="397">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>7666</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>8052</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="404">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>29418</v>
+        <v>29719</v>
       </c>
     </row>
     <row r="413">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>8219</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="418">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>138030</v>
+        <v>140219</v>
       </c>
     </row>
     <row r="438">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>7014</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="446">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>67360</v>
+        <v>67663</v>
       </c>
     </row>
     <row r="448">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>45588</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="450">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>8536</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="452">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>14048</v>
+        <v>14114</v>
       </c>
     </row>
     <row r="456">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>79162</v>
+        <v>79340</v>
       </c>
     </row>
     <row r="460">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>7643</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="461">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>25317</v>
+        <v>25494</v>
       </c>
     </row>
     <row r="465">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>3329</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="483">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>284022</v>
+        <v>285797</v>
       </c>
     </row>
     <row r="486">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>9222</v>
+        <v>9278</v>
       </c>
     </row>
     <row r="499">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>6099</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="527">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>28987</v>
+        <v>29134</v>
       </c>
     </row>
     <row r="536">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>1626</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="539">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>15541</v>
+        <v>15587</v>
       </c>
     </row>
     <row r="544">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>22272</v>
+        <v>22322</v>
       </c>
     </row>
     <row r="551">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>45800</v>
+        <v>46179</v>
       </c>
     </row>
     <row r="552">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>21123</v>
+        <v>21216</v>
       </c>
     </row>
     <row r="554">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>5947</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="555">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>12682</v>
+        <v>12721</v>
       </c>
     </row>
     <row r="559">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>66240</v>
+        <v>67320</v>
       </c>
     </row>
     <row r="560">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>14095</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="562">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>3400</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="570">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>3396</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="575">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>3581</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="577">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>1253</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="578">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>101667</v>
+        <v>103680</v>
       </c>
     </row>
     <row r="582">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>28221</v>
+        <v>28413</v>
       </c>
     </row>
     <row r="590">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>159300</v>
+        <v>160310</v>
       </c>
     </row>
     <row r="594">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>8770</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="598">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>62825</v>
+        <v>65517</v>
       </c>
     </row>
     <row r="611">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>1802</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="624">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="642">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>2315</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="647">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>4766</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="654">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="657">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="658">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="659">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="662">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="663">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="665">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="666">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="668">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="669">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="670">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="671">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="673">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="675">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="676">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>139</v>
+        <v>186</v>
       </c>
     </row>
     <row r="677">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="679">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="680">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="681">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="682">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="683">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="684">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="685">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="687">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="689">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="690">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="691">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="692">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="693">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="695">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="697">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="698">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="699">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="H699" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="700">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="H700" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="701">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="702">
@@ -24216,7 +24216,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="703">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="706">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="708">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="709">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="710">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="713">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="715">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>473</v>
+        <v>523</v>
       </c>
     </row>
     <row r="717">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>318</v>
+        <v>476</v>
       </c>
     </row>
     <row r="721">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>173</v>
+        <v>350</v>
       </c>
     </row>
     <row r="723">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H723"/>
+  <dimension ref="A1:H724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>24934</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="108">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5764</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="143">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>14386</v>
+        <v>14539</v>
       </c>
     </row>
     <row r="151">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>18152</v>
+        <v>18187</v>
       </c>
     </row>
     <row r="170">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>15835</v>
+        <v>16070</v>
       </c>
     </row>
     <row r="193">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19054</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="195">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>6803</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="204">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>4703</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="224">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>16935</v>
+        <v>17030</v>
       </c>
     </row>
     <row r="244">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>195234</v>
+        <v>198543</v>
       </c>
     </row>
     <row r="266">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>9651</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="285">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>13220</v>
+        <v>13280</v>
       </c>
     </row>
     <row r="298">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>39070</v>
+        <v>39211</v>
       </c>
     </row>
     <row r="310">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>38725</v>
+        <v>39320</v>
       </c>
     </row>
     <row r="346">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>64861</v>
+        <v>65361</v>
       </c>
     </row>
     <row r="391">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>143098</v>
+        <v>145522</v>
       </c>
     </row>
     <row r="399">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>37915</v>
+        <v>38297</v>
       </c>
     </row>
     <row r="426">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>66210</v>
+        <v>66073</v>
       </c>
     </row>
     <row r="436">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>27706</v>
+        <v>28419</v>
       </c>
     </row>
     <row r="442">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>46000</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="450">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>3599</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="469">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>20434</v>
+        <v>20488</v>
       </c>
     </row>
     <row r="481">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>2581</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="496">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>13860</v>
+        <v>14037</v>
       </c>
     </row>
     <row r="503">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>16456</v>
+        <v>16767</v>
       </c>
     </row>
     <row r="508">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>28039</v>
+        <v>28205</v>
       </c>
     </row>
     <row r="532">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>13278</v>
+        <v>13462</v>
       </c>
     </row>
     <row r="535">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>6015</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="555">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>523</v>
+        <v>863</v>
       </c>
     </row>
     <row r="717">
@@ -24954,6 +24954,40 @@
       </c>
       <c r="H723" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Universidad de Atacama</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>UN004</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>0</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H724" t="n">
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7583</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="28">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5768</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="40">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7835</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="46">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>7677</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="50">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5322</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="64">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>82474</v>
+        <v>84125</v>
       </c>
     </row>
     <row r="73">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>15028</v>
+        <v>15152</v>
       </c>
     </row>
     <row r="150">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>4388</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="160">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19215</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="195">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>3669</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="222">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>23577</v>
+        <v>23622</v>
       </c>
     </row>
     <row r="246">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>8300</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="275">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10721</v>
+        <v>10739</v>
       </c>
     </row>
     <row r="319">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>33752</v>
+        <v>34007</v>
       </c>
     </row>
     <row r="328">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>39320</v>
+        <v>39920</v>
       </c>
     </row>
     <row r="346">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>28419</v>
+        <v>28476</v>
       </c>
     </row>
     <row r="442">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>14114</v>
+        <v>14191</v>
       </c>
     </row>
     <row r="456">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>3620</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="469">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>5709</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="471">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>8747</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="479">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>265163</v>
+        <v>265352</v>
       </c>
     </row>
     <row r="494">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>5986</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="526">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>29134</v>
+        <v>29275</v>
       </c>
     </row>
     <row r="536">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>15587</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="544">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>7925</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="564">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>32102</v>
+        <v>32813</v>
       </c>
     </row>
     <row r="571">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/17</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>3649</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="577">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>2520</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="634">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/24</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>1138</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="649">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>4912</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="654">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>863</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="717">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>476</v>
+        <v>549</v>
       </c>
     </row>
     <row r="721">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>629</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H724"/>
+  <dimension ref="A1:H725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023/09/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21235</v>
+        <v>23665</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22103</v>
+        <v>22275</v>
       </c>
     </row>
     <row r="15">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4289</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="22">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28199</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="47">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>55279</v>
+        <v>56720</v>
       </c>
     </row>
     <row r="49">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>27023</v>
+        <v>27338</v>
       </c>
     </row>
     <row r="63">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9196</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="74">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>24985</v>
+        <v>25269</v>
       </c>
     </row>
     <row r="108">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>4469</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="111">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9495</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="133">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>6601</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>35927</v>
+        <v>36419</v>
       </c>
     </row>
     <row r="137">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2470</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="139">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1739</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="142">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>181099</v>
+        <v>184072</v>
       </c>
     </row>
     <row r="153">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>82087</v>
+        <v>83155</v>
       </c>
     </row>
     <row r="165">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>6547</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="177">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>30437</v>
+        <v>30536</v>
       </c>
     </row>
     <row r="197">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>3775</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="222">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4149</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="228">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3215</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="236">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>17030</v>
+        <v>17061</v>
       </c>
     </row>
     <row r="244">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>23622</v>
+        <v>23645</v>
       </c>
     </row>
     <row r="246">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="254">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>255999</v>
+        <v>258542</v>
       </c>
     </row>
     <row r="265">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>34149</v>
+        <v>34657</v>
       </c>
     </row>
     <row r="279">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>8487</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="287">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>13280</v>
+        <v>13408</v>
       </c>
     </row>
     <row r="298">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>52183</v>
+        <v>53075</v>
       </c>
     </row>
     <row r="309">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>11632</v>
+        <v>11793</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>14569</v>
+        <v>14808</v>
       </c>
     </row>
     <row r="327">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>6288</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="332">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>1711</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="364">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>24665</v>
+        <v>24786</v>
       </c>
     </row>
     <row r="382">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>32099</v>
+        <v>32284</v>
       </c>
     </row>
     <row r="386">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>12670</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="408">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>28476</v>
+        <v>28920</v>
       </c>
     </row>
     <row r="442">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>5055</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="447">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>23491</v>
+        <v>23534</v>
       </c>
     </row>
     <row r="459">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>12736</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="466">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>10315</v>
+        <v>10392</v>
       </c>
     </row>
     <row r="470">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/06</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>6376</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="476">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>16587</v>
+        <v>16611</v>
       </c>
     </row>
     <row r="495">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>112300</v>
+        <v>114292</v>
       </c>
     </row>
     <row r="505">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>70330</v>
+        <v>70643</v>
       </c>
     </row>
     <row r="522">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>6202</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="527">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>21686</v>
+        <v>21804</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>1640</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="539">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>2604</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="541">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>12896</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="566">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>19470</v>
+        <v>19518</v>
       </c>
     </row>
     <row r="567">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>2521</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="568">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>7678</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="584">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>14078</v>
+        <v>14506</v>
       </c>
     </row>
     <row r="603">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>3347</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="607">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>1197</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="638">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>5047</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="654">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>1483</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="716">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
     </row>
     <row r="723">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -24988,6 +24988,40 @@
       </c>
       <c r="H724" t="n">
         <v>33</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Universidad de Santiago de Chile (USACH)</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>UN008</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>0</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0</v>
+      </c>
+      <c r="H725" t="n">
+        <v>4636</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5824</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="40">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>182407</v>
+        <v>184936</v>
       </c>
     </row>
     <row r="88">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>5611</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="118">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>33030</v>
+        <v>33382</v>
       </c>
     </row>
     <row r="316">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>117901</v>
+        <v>120615</v>
       </c>
     </row>
     <row r="357">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>142672</v>
+        <v>143857</v>
       </c>
     </row>
     <row r="378">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>52910</v>
+        <v>53728</v>
       </c>
     </row>
     <row r="552">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H727"/>
+  <dimension ref="A1:H728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22275</v>
+        <v>22439</v>
       </c>
     </row>
     <row r="15">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8364</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="20">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>681</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5884</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="40">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>69377</v>
+        <v>70590</v>
       </c>
     </row>
     <row r="43">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8046</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="46">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13808</v>
+        <v>13868</v>
       </c>
     </row>
     <row r="53">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="58">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5422</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="64">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>6878</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="72">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>31834</v>
+        <v>32441</v>
       </c>
     </row>
     <row r="79">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>14825</v>
+        <v>14906</v>
       </c>
     </row>
     <row r="100">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>111614</v>
+        <v>113279</v>
       </c>
     </row>
     <row r="101">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>15152</v>
+        <v>15348</v>
       </c>
     </row>
     <row r="150">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2024/04/27</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>4806</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="224">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>23653</v>
+        <v>23696</v>
       </c>
     </row>
     <row r="246">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="259">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>8705</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="268">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>39622</v>
+        <v>39621</v>
       </c>
     </row>
     <row r="310">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>6268</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="344">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>25048</v>
+        <v>25338</v>
       </c>
     </row>
     <row r="382">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>7832</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="402">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>24950</v>
+        <v>24919</v>
       </c>
     </row>
     <row r="416">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>300219</v>
+        <v>303217</v>
       </c>
     </row>
     <row r="436">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>21589</v>
+        <v>21723</v>
       </c>
     </row>
     <row r="459">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>8861</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="480">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20612</v>
+        <v>20644</v>
       </c>
     </row>
     <row r="482">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>17094</v>
+        <v>17186</v>
       </c>
     </row>
     <row r="490">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>6230</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="503">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>22808</v>
+        <v>22896</v>
       </c>
     </row>
     <row r="517">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>6099</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="527">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>13573</v>
+        <v>13647</v>
       </c>
     </row>
     <row r="536">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>15640</v>
+        <v>15722</v>
       </c>
     </row>
     <row r="545">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>21216</v>
+        <v>21245</v>
       </c>
     </row>
     <row r="555">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/27</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>32813</v>
+        <v>33468</v>
       </c>
     </row>
     <row r="572">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>103680</v>
+        <v>105653</v>
       </c>
     </row>
     <row r="583">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>7787</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="585">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>3417</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="621">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>1403</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="643">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>2150</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="716">
@@ -24692,17 +24692,17 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>Hospital Regional Copiapó San José del Carmen</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>MU075</t>
+          <t>AO113</t>
         </is>
       </c>
       <c r="E716" t="n">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>1422</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="717">
@@ -24726,17 +24726,17 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Curanilahue</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU075</t>
         </is>
       </c>
       <c r="E717" t="n">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>1789</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="718">
@@ -24760,17 +24760,17 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Santa Rosa</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>AJ037</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E718" t="n">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>53</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="719">
@@ -24794,17 +24794,17 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Municipalidad de Panquehue</t>
+          <t>Servicio Local de Educación Pública Santa Rosa</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>MU201</t>
+          <t>AJ037</t>
         </is>
       </c>
       <c r="E719" t="n">
@@ -24817,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>441</v>
+        <v>53</v>
       </c>
     </row>
     <row r="720">
@@ -24828,17 +24828,17 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Municipalidad de Panquehue</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MU201</t>
         </is>
       </c>
       <c r="E720" t="n">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>927</v>
+        <v>441</v>
       </c>
     </row>
     <row r="721">
@@ -24862,17 +24862,17 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E721" t="n">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="H721" t="n">
-        <v>1622</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="722">
@@ -24896,17 +24896,17 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E722" t="n">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>1346</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="723">
@@ -24930,17 +24930,17 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes de Iquique</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>CM062</t>
+          <t>MU064</t>
         </is>
       </c>
       <c r="E723" t="n">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="724">
@@ -24964,17 +24964,17 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>Universidad de Santiago de Chile (USACH)</t>
+          <t>Corporación Municipal de Deportes de Iquique</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>UN008</t>
+          <t>CM062</t>
         </is>
       </c>
       <c r="E724" t="n">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>9392</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725">
@@ -25090,6 +25090,40 @@
       </c>
       <c r="H727" t="n">
         <v>133</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2024/04/24</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Universidad de Santiago de Chile (USACH)</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>UN008</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>0</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0</v>
+      </c>
+      <c r="G728" t="n">
+        <v>0</v>
+      </c>
+      <c r="H728" t="n">
+        <v>14399</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5030</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>27706</v>
+        <v>27691</v>
       </c>
     </row>
     <row r="63">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>15286</v>
+        <v>15285</v>
       </c>
     </row>
     <row r="155">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>4469</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="160">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>66478</v>
+        <v>67227</v>
       </c>
     </row>
     <row r="163">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4163</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="228">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>34007</v>
+        <v>34316</v>
       </c>
     </row>
     <row r="328">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>6398</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="344">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>66813</v>
+        <v>66953</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>7637</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="438">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>28920</v>
+        <v>29114</v>
       </c>
     </row>
     <row r="443">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>5319</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="448">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>45000</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="458">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>7710</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="462">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>10392</v>
+        <v>10561</v>
       </c>
     </row>
     <row r="471">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20644</v>
+        <v>20714</v>
       </c>
     </row>
     <row r="482">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>6593</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="522">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>2657</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="542">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>12942</v>
+        <v>13025</v>
       </c>
     </row>
     <row r="567">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>2529</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="569">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>3868</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="578">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>100396</v>
+        <v>100818</v>
       </c>
     </row>
     <row r="588">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>2227</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="597">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>2663</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="635">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4377</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7660</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="28">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28474</v>
+        <v>28762</v>
       </c>
     </row>
     <row r="47">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>7865</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="50">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13868</v>
+        <v>13938</v>
       </c>
     </row>
     <row r="53">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1257</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="58">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>6196</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="67">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>12604</v>
+        <v>12737</v>
       </c>
     </row>
     <row r="68">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>4212</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="71">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9288</v>
+        <v>9337</v>
       </c>
     </row>
     <row r="74">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="75">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>10563</v>
+        <v>10732</v>
       </c>
     </row>
     <row r="85">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>78840</v>
+        <v>79915</v>
       </c>
     </row>
     <row r="98">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>57634</v>
+        <v>58183</v>
       </c>
     </row>
     <row r="105">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>9821</v>
+        <v>9945</v>
       </c>
     </row>
     <row r="106">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>81933</v>
+        <v>83223</v>
       </c>
     </row>
     <row r="114">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>15249</v>
+        <v>15280</v>
       </c>
     </row>
     <row r="130">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>15995</v>
+        <v>16134</v>
       </c>
     </row>
     <row r="131">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>3613</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="132">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9638</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="133">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>6706</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>36419</v>
+        <v>36909</v>
       </c>
     </row>
     <row r="137">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2542</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="139">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>21680</v>
+        <v>21996</v>
       </c>
     </row>
     <row r="144">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>23298</v>
+        <v>23537</v>
       </c>
     </row>
     <row r="146">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>12140</v>
+        <v>12280</v>
       </c>
     </row>
     <row r="148">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>6271</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="149">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>45797</v>
+        <v>46427</v>
       </c>
     </row>
     <row r="152">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>184072</v>
+        <v>187102</v>
       </c>
     </row>
     <row r="153">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>56075</v>
+        <v>56189</v>
       </c>
     </row>
     <row r="157">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>83155</v>
+        <v>84289</v>
       </c>
     </row>
     <row r="165">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>39508</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="167">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>14746</v>
+        <v>14971</v>
       </c>
     </row>
     <row r="174">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>6652</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="177">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>12780</v>
+        <v>12858</v>
       </c>
     </row>
     <row r="181">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3053</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="183">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>3007</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="184">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>5521</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>6800</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>13251</v>
+        <v>13515</v>
       </c>
     </row>
     <row r="189">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>16306</v>
+        <v>16539</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>9123</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>30738</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="197">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>12805</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="203">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>90040</v>
+        <v>91765</v>
       </c>
     </row>
     <row r="210">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>22102</v>
+        <v>22421</v>
       </c>
     </row>
     <row r="213">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>6077</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="218">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>18552</v>
+        <v>18642</v>
       </c>
     </row>
     <row r="225">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>5736</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="226">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>34205</v>
+        <v>34642</v>
       </c>
     </row>
     <row r="227">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>192495</v>
+        <v>195587</v>
       </c>
     </row>
     <row r="229">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3741</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="235">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3269</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="236">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>4767</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="237">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>11778</v>
+        <v>11872</v>
       </c>
     </row>
     <row r="242">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>27162</v>
+        <v>27562</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>23696</v>
+        <v>23847</v>
       </c>
     </row>
     <row r="246">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>14538</v>
+        <v>14687</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>22520</v>
+        <v>22630</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>15595</v>
+        <v>15695</v>
       </c>
     </row>
     <row r="252">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>9692</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="253">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>7331</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="257">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>7259</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="260">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>44894</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="263">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>5994</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="267">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>8735</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="268">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>57158</v>
+        <v>57952</v>
       </c>
     </row>
     <row r="270">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>2304</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="276">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>42705</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="277">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>34657</v>
+        <v>35167</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>41316</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="280">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>25023</v>
+        <v>25392</v>
       </c>
     </row>
     <row r="286">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>6273</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="290">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>79424</v>
+        <v>80795</v>
       </c>
     </row>
     <row r="295">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>12102</v>
+        <v>12261</v>
       </c>
     </row>
     <row r="300">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>1425</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="302">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>17692</v>
+        <v>17866</v>
       </c>
     </row>
     <row r="306">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>13321</v>
+        <v>13498</v>
       </c>
     </row>
     <row r="307">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>53075</v>
+        <v>53949</v>
       </c>
     </row>
     <row r="309">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>20926</v>
+        <v>21138</v>
       </c>
     </row>
     <row r="311">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>6592</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="313">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>72725</v>
+        <v>73809</v>
       </c>
     </row>
     <row r="314">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>47899</v>
+        <v>48445</v>
       </c>
     </row>
     <row r="325">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>11954</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="326">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>14601</v>
+        <v>14761</v>
       </c>
     </row>
     <row r="333">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>7388</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="337">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>58336</v>
+        <v>59203</v>
       </c>
     </row>
     <row r="343">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>41943</v>
+        <v>42411</v>
       </c>
     </row>
     <row r="352">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>28265</v>
+        <v>28703</v>
       </c>
     </row>
     <row r="361">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>14377</v>
+        <v>14525</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>1725</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="364">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>22310</v>
+        <v>22595</v>
       </c>
     </row>
     <row r="370">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>18790</v>
+        <v>18954</v>
       </c>
     </row>
     <row r="381">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>22028</v>
+        <v>22068</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>32434</v>
+        <v>32901</v>
       </c>
     </row>
     <row r="386">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>12662</v>
+        <v>12888</v>
       </c>
     </row>
     <row r="389">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>65854</v>
+        <v>66021</v>
       </c>
     </row>
     <row r="391">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>7566</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="406">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>18707</v>
+        <v>18915</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>12827</v>
+        <v>12984</v>
       </c>
     </row>
     <row r="408">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>6908</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="414">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>15501</v>
+        <v>15712</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>10046</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="420">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>69259</v>
+        <v>70588</v>
       </c>
     </row>
     <row r="427">
@@ -14968,12 +14968,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+          <t>Oficina de Atención</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>21403</v>
+        <v>21776</v>
       </c>
     </row>
     <row r="434">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>66953</v>
+        <v>67376</v>
       </c>
     </row>
     <row r="437">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>14524</v>
+        <v>14764</v>
       </c>
     </row>
     <row r="440">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>43177</v>
+        <v>43807</v>
       </c>
     </row>
     <row r="442">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>5354</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="448">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>8992</v>
+        <v>9123</v>
       </c>
     </row>
     <row r="450">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>88073</v>
+        <v>88263</v>
       </c>
     </row>
     <row r="454">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>21723</v>
+        <v>21945</v>
       </c>
     </row>
     <row r="459">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>80162</v>
+        <v>80448</v>
       </c>
     </row>
     <row r="461">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>7787</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="462">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>9195</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="465">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>25792</v>
+        <v>25865</v>
       </c>
     </row>
     <row r="466">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>7800</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="474">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>6783</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="477">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>11839</v>
+        <v>12041</v>
       </c>
     </row>
     <row r="485">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>16771</v>
+        <v>16960</v>
       </c>
     </row>
     <row r="496">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>2597</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="497">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>25332</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="502">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>114292</v>
+        <v>116233</v>
       </c>
     </row>
     <row r="506">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>159740</v>
+        <v>162165</v>
       </c>
     </row>
     <row r="508">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>6385</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="512">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>26392</v>
+        <v>26915</v>
       </c>
     </row>
     <row r="514">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>12588</v>
+        <v>12644</v>
       </c>
     </row>
     <row r="515">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>22896</v>
+        <v>23114</v>
       </c>
     </row>
     <row r="517">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>3681</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>16124</v>
+        <v>16369</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>48390</v>
+        <v>48672</v>
       </c>
     </row>
     <row r="520">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>6305</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="528">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>21874</v>
+        <v>21995</v>
       </c>
     </row>
     <row r="538">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>6084</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="556">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>34360</v>
+        <v>34706</v>
       </c>
     </row>
     <row r="564">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>7959</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="565">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>13025</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="567">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>3496</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="576">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>100818</v>
+        <v>103521</v>
       </c>
     </row>
     <row r="588">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>61365</v>
+        <v>62181</v>
       </c>
     </row>
     <row r="589">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>2085</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="590">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>28584</v>
+        <v>28582</v>
       </c>
     </row>
     <row r="591">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>15647</v>
+        <v>15869</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>25061</v>
+        <v>25205</v>
       </c>
     </row>
     <row r="594">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>15108</v>
+        <v>15147</v>
       </c>
     </row>
     <row r="596">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>9042</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="599">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>14506</v>
+        <v>14970</v>
       </c>
     </row>
     <row r="604">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>3466</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="608">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>1754</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="609">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>9124</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="611">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="619">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>639</v>
+        <v>684</v>
       </c>
     </row>
     <row r="636">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>2496</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="637">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>1305</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>1544</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="644">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>3990</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="646">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="652">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>5340</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="655">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>1579</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="712">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>1346</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="724">
@@ -24998,17 +24998,17 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Universidad de Magallanes</t>
+          <t>Universidad de Atacama</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>UN016</t>
+          <t>UN004</t>
         </is>
       </c>
       <c r="E725" t="n">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>1415</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="726">
@@ -25032,17 +25032,17 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Universidad de Atacama</t>
+          <t>Universidad de Magallanes</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>UN004</t>
+          <t>UN016</t>
         </is>
       </c>
       <c r="E726" t="n">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>624</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="727">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10420</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="11">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14227</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73729</v>
+        <v>75260</v>
       </c>
     </row>
     <row r="17">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8489</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="20">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4384</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="22">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34979</v>
+        <v>35525</v>
       </c>
     </row>
     <row r="24">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>44697</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="26">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>20115</v>
+        <v>20346</v>
       </c>
     </row>
     <row r="29">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>35884</v>
+        <v>37179</v>
       </c>
     </row>
     <row r="31">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>16101</v>
+        <v>16257</v>
       </c>
     </row>
     <row r="33">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>11727</v>
+        <v>11912</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>149214</v>
+        <v>151385</v>
       </c>
     </row>
     <row r="35">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>52987</v>
+        <v>53992</v>
       </c>
     </row>
     <row r="36">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24605</v>
+        <v>24811</v>
       </c>
     </row>
     <row r="41">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>78509</v>
+        <v>79797</v>
       </c>
     </row>
     <row r="42">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4239</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="44">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16367</v>
+        <v>16431</v>
       </c>
     </row>
     <row r="45">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4658</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>56720</v>
+        <v>58215</v>
       </c>
     </row>
     <row r="49">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1767</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="51">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13938</v>
+        <v>13971</v>
       </c>
     </row>
     <row r="53">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>6250</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="57">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>83100</v>
+        <v>84371</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4875</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="60">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>105917</v>
+        <v>107094</v>
       </c>
     </row>
     <row r="61">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>86501</v>
+        <v>87354</v>
       </c>
     </row>
     <row r="62">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>30000</v>
+        <v>30440</v>
       </c>
     </row>
     <row r="66">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>206965</v>
+        <v>210997</v>
       </c>
     </row>
     <row r="69">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>118845</v>
+        <v>119715</v>
       </c>
     </row>
     <row r="70">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>4211</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="71">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>85672</v>
+        <v>87190</v>
       </c>
     </row>
     <row r="73">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9337</v>
+        <v>9389</v>
       </c>
     </row>
     <row r="74">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>13674</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>32441</v>
+        <v>33021</v>
       </c>
     </row>
     <row r="79">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>26356</v>
+        <v>26526</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>62436</v>
+        <v>63342</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>147135</v>
+        <v>149047</v>
       </c>
     </row>
     <row r="82">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>149627</v>
+        <v>150791</v>
       </c>
     </row>
     <row r="83">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>19033</v>
+        <v>19368</v>
       </c>
     </row>
     <row r="87">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>23344</v>
+        <v>23683</v>
       </c>
     </row>
     <row r="90">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>285653</v>
+        <v>290573</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>25621</v>
+        <v>25847</v>
       </c>
     </row>
     <row r="92">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>6706</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="93">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>8331</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>3668</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="95">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>52297</v>
+        <v>52708</v>
       </c>
     </row>
     <row r="97">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>104930</v>
+        <v>105996</v>
       </c>
     </row>
     <row r="99">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>14906</v>
+        <v>14956</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>103035</v>
+        <v>104718</v>
       </c>
     </row>
     <row r="102">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>66709</v>
+        <v>68489</v>
       </c>
     </row>
     <row r="103">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>123517</v>
+        <v>125782</v>
       </c>
     </row>
     <row r="104">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>10604</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="107">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>25565</v>
+        <v>25874</v>
       </c>
     </row>
     <row r="108">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>110388</v>
+        <v>111330</v>
       </c>
     </row>
     <row r="110">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>4533</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="111">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>173631</v>
+        <v>174755</v>
       </c>
     </row>
     <row r="112">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>21974</v>
+        <v>22151</v>
       </c>
     </row>
     <row r="113">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>14229</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="116">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>10118</v>
+        <v>10277</v>
       </c>
     </row>
     <row r="117">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>5741</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="118">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>159916</v>
+        <v>162966</v>
       </c>
     </row>
     <row r="119">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>12730</v>
+        <v>12923</v>
       </c>
     </row>
     <row r="120">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>4573</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="121">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>7409</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="122">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>17857</v>
+        <v>18011</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7317</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="124">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5962</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="125">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>22455</v>
+        <v>22818</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>178855</v>
+        <v>181480</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>14552</v>
+        <v>14699</v>
       </c>
     </row>
     <row r="128">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>15280</v>
+        <v>15302</v>
       </c>
     </row>
     <row r="130">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9751</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>10489</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>16333</v>
+        <v>16594</v>
       </c>
     </row>
     <row r="135">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>4999</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="138">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>15589</v>
+        <v>15707</v>
       </c>
     </row>
     <row r="140">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>6075</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="141">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1751</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>40385</v>
+        <v>40831</v>
       </c>
     </row>
     <row r="145">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>14684</v>
+        <v>14765</v>
       </c>
     </row>
     <row r="151">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>4882</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>15285</v>
+        <v>15498</v>
       </c>
     </row>
     <row r="155">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>64574</v>
+        <v>64865</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>56189</v>
+        <v>56971</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>14300</v>
+        <v>14520</v>
       </c>
     </row>
     <row r="158">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>33550</v>
+        <v>34225</v>
       </c>
     </row>
     <row r="159">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>7198</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="161">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>37593</v>
+        <v>38297</v>
       </c>
     </row>
     <row r="164">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>17255</v>
+        <v>17566</v>
       </c>
     </row>
     <row r="169">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>18369</v>
+        <v>18555</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>19956</v>
+        <v>20079</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>24125</v>
+        <v>24489</v>
       </c>
     </row>
     <row r="172">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>39472</v>
+        <v>39867</v>
       </c>
     </row>
     <row r="173">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>1257</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="175">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>10900</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="176">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>16189</v>
+        <v>16290</v>
       </c>
     </row>
     <row r="178">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>77864</v>
+        <v>78618</v>
       </c>
     </row>
     <row r="179">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>16036</v>
+        <v>16248</v>
       </c>
     </row>
     <row r="180">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>12858</v>
+        <v>13018</v>
       </c>
     </row>
     <row r="181">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>58224</v>
+        <v>58768</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>20047</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="190">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>23598</v>
+        <v>23721</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>2991</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="192">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>16829</v>
+        <v>16962</v>
       </c>
     </row>
     <row r="194">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>30919</v>
+        <v>31050</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>75779</v>
+        <v>76810</v>
       </c>
     </row>
     <row r="198">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>44860</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="199">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>26246</v>
+        <v>26511</v>
       </c>
     </row>
     <row r="200">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>71397</v>
+        <v>72370</v>
       </c>
     </row>
     <row r="202">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>7024</v>
+        <v>7131</v>
       </c>
     </row>
     <row r="204">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>14199</v>
+        <v>14277</v>
       </c>
     </row>
     <row r="205">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3709</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="206">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>2500</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="207">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>8792</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="208">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>31602</v>
+        <v>31983</v>
       </c>
     </row>
     <row r="209">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>4122</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="211">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>121291</v>
+        <v>122804</v>
       </c>
     </row>
     <row r="212">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>13302</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="214">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>12645</v>
+        <v>12854</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>54343</v>
+        <v>55205</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>32612</v>
+        <v>32941</v>
       </c>
     </row>
     <row r="217">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>7667</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>77002</v>
+        <v>77713</v>
       </c>
     </row>
     <row r="221">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>17795</v>
+        <v>17958</v>
       </c>
     </row>
     <row r="223">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>18642</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="225">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>48908</v>
+        <v>49707</v>
       </c>
     </row>
     <row r="230">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>11628</v>
+        <v>11792</v>
       </c>
     </row>
     <row r="232">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>40578</v>
+        <v>41022</v>
       </c>
     </row>
     <row r="233">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>15355</v>
+        <v>15565</v>
       </c>
     </row>
     <row r="234">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3796</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="235">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>4808</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="237">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>34955</v>
+        <v>35505</v>
       </c>
     </row>
     <row r="239">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>18630</v>
+        <v>18784</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>13651</v>
+        <v>13939</v>
       </c>
     </row>
     <row r="241">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>11690</v>
+        <v>11849</v>
       </c>
     </row>
     <row r="243">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>17198</v>
+        <v>17337</v>
       </c>
     </row>
     <row r="244">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>23847</v>
+        <v>24008</v>
       </c>
     </row>
     <row r="246">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>7097</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="247">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>5408</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>47472</v>
+        <v>48042</v>
       </c>
     </row>
     <row r="249">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>22630</v>
+        <v>22743</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>15695</v>
+        <v>15737</v>
       </c>
     </row>
     <row r="252">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>9704</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="253">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>12936</v>
+        <v>13158</v>
       </c>
     </row>
     <row r="255">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>53781</v>
+        <v>53824</v>
       </c>
     </row>
     <row r="256">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>16645</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="259">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>74839</v>
+        <v>75246</v>
       </c>
     </row>
     <row r="261">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1649</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="262">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>123367</v>
+        <v>125170</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>262617</v>
+        <v>266719</v>
       </c>
     </row>
     <row r="265">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>8822</v>
+        <v>8851</v>
       </c>
     </row>
     <row r="268">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>17130</v>
+        <v>17377</v>
       </c>
     </row>
     <row r="269">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="271">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>9249</v>
+        <v>9399</v>
       </c>
     </row>
     <row r="272">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>161615</v>
+        <v>163042</v>
       </c>
     </row>
     <row r="273">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>33076</v>
+        <v>33274</v>
       </c>
     </row>
     <row r="274">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>136755</v>
+        <v>138715</v>
       </c>
     </row>
     <row r="278">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>28054</v>
+        <v>28105</v>
       </c>
     </row>
     <row r="281">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>20614</v>
+        <v>20960</v>
       </c>
     </row>
     <row r="283">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>47679</v>
+        <v>47736</v>
       </c>
     </row>
     <row r="284">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>9812</v>
+        <v>9895</v>
       </c>
     </row>
     <row r="285">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>8536</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="287">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>8705</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="288">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>13008</v>
+        <v>13269</v>
       </c>
     </row>
     <row r="289">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>26132</v>
+        <v>26527</v>
       </c>
     </row>
     <row r="291">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>46101</v>
+        <v>46977</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>41802</v>
+        <v>42458</v>
       </c>
     </row>
     <row r="293">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>8374</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="294">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>150167</v>
+        <v>152544</v>
       </c>
     </row>
     <row r="296">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>12092</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="299">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>10309</v>
+        <v>10401</v>
       </c>
     </row>
     <row r="301">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>114451</v>
+        <v>116172</v>
       </c>
     </row>
     <row r="303">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>16792</v>
+        <v>16996</v>
       </c>
     </row>
     <row r="304">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>39642</v>
+        <v>40420</v>
       </c>
     </row>
     <row r="305">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>20995</v>
+        <v>21284</v>
       </c>
     </row>
     <row r="308">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>39621</v>
+        <v>39856</v>
       </c>
     </row>
     <row r="310">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>16975</v>
+        <v>17273</v>
       </c>
     </row>
     <row r="312">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>71969</v>
+        <v>73088</v>
       </c>
     </row>
     <row r="315">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>33382</v>
+        <v>33744</v>
       </c>
     </row>
     <row r="317">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10833</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="319">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>264615</v>
+        <v>267892</v>
       </c>
     </row>
     <row r="320">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>46820</v>
+        <v>47425</v>
       </c>
     </row>
     <row r="321">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>12920</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="323">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>52178</v>
+        <v>53028</v>
       </c>
     </row>
     <row r="324">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>14995</v>
+        <v>15056</v>
       </c>
     </row>
     <row r="327">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>110382</v>
+        <v>112275</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>12787</v>
+        <v>12938</v>
       </c>
     </row>
     <row r="330">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>38553</v>
+        <v>38904</v>
       </c>
     </row>
     <row r="331">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>6393</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="332">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>10860</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="334">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>25269</v>
+        <v>25677</v>
       </c>
     </row>
     <row r="335">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>176814</v>
+        <v>179545</v>
       </c>
     </row>
     <row r="336">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>26702</v>
+        <v>27106</v>
       </c>
     </row>
     <row r="338">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>58630</v>
+        <v>59325</v>
       </c>
     </row>
     <row r="339">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>190658</v>
+        <v>193798</v>
       </c>
     </row>
     <row r="340">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>11710</v>
+        <v>11842</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>9951</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="342">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>9756</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="345">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>16864</v>
+        <v>17135</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>111870</v>
+        <v>113365</v>
       </c>
     </row>
     <row r="348">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>29483</v>
+        <v>29917</v>
       </c>
     </row>
     <row r="349">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>21250</v>
+        <v>21690</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>79374</v>
+        <v>80527</v>
       </c>
     </row>
     <row r="351">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>99059</v>
+        <v>100115</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>13889</v>
+        <v>14082</v>
       </c>
     </row>
     <row r="354">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>26850</v>
+        <v>27230</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>12732</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>73310</v>
+        <v>73945</v>
       </c>
     </row>
     <row r="357">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>120615</v>
+        <v>123101</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>27326</v>
+        <v>27594</v>
       </c>
     </row>
     <row r="359">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>29177</v>
+        <v>29430</v>
       </c>
     </row>
     <row r="360">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>8452</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="362">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>13589</v>
+        <v>13834</v>
       </c>
     </row>
     <row r="365">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>28902</v>
+        <v>29133</v>
       </c>
     </row>
     <row r="366">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>86717</v>
+        <v>88142</v>
       </c>
     </row>
     <row r="367">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>188889</v>
+        <v>191728</v>
       </c>
     </row>
     <row r="368">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1526</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="369">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>5261</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="371">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>11380</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="372">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>17119</v>
+        <v>17370</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>66197</v>
+        <v>67192</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>15752</v>
+        <v>15928</v>
       </c>
     </row>
     <row r="375">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>2465</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>37431</v>
+        <v>38048</v>
       </c>
     </row>
     <row r="378">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>143857</v>
+        <v>145361</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>5895</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="380">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>1242</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>261521</v>
+        <v>265642</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>22068</v>
+        <v>22216</v>
       </c>
     </row>
     <row r="385">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>30958</v>
+        <v>31563</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>287753</v>
+        <v>291538</v>
       </c>
     </row>
     <row r="388">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>89326</v>
+        <v>90758</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>66021</v>
+        <v>66352</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>39161</v>
+        <v>40382</v>
       </c>
     </row>
     <row r="392">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>54996</v>
+        <v>55884</v>
       </c>
     </row>
     <row r="393">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>109404</v>
+        <v>111241</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>25075</v>
+        <v>26398</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>30787</v>
+        <v>31258</v>
       </c>
     </row>
     <row r="396">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>15130</v>
+        <v>15302</v>
       </c>
     </row>
     <row r="397">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>26208</v>
+        <v>26453</v>
       </c>
     </row>
     <row r="398">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>61595</v>
+        <v>62163</v>
       </c>
     </row>
     <row r="400">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>9235</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="401">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>8006</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>160414</v>
+        <v>162838</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>8270</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>9665</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="405">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>10478</v>
+        <v>10652</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>18951</v>
+        <v>19220</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>10225</v>
+        <v>10408</v>
       </c>
     </row>
     <row r="411">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>30055</v>
+        <v>30409</v>
       </c>
     </row>
     <row r="413">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>11207</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="415">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>20696</v>
+        <v>21009</v>
       </c>
     </row>
     <row r="417">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>10109</v>
+        <v>10174</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>11044</v>
+        <v>11212</v>
       </c>
     </row>
     <row r="421">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>12195</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="422">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>10491</v>
+        <v>10654</v>
       </c>
     </row>
     <row r="424">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>37567</v>
+        <v>38110</v>
       </c>
     </row>
     <row r="425">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>91652</v>
+        <v>93554</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>28033</v>
+        <v>28473</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>21278</v>
+        <v>21583</v>
       </c>
     </row>
     <row r="430">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Oficina de Atención</t>
+          <t>Subsecretaría de Relaciones Exteriores</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>21069</v>
+        <v>21396</v>
       </c>
     </row>
     <row r="432">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>13480</v>
+        <v>13759</v>
       </c>
     </row>
     <row r="433">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>13034</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="435">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>142362</v>
+        <v>144458</v>
       </c>
     </row>
     <row r="439">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>2283</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="441">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>3196</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="444">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>34992</v>
+        <v>35475</v>
       </c>
     </row>
     <row r="445">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>37556</v>
+        <v>38116</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>7155</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="447">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>68449</v>
+        <v>69242</v>
       </c>
     </row>
     <row r="449">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>46625</v>
+        <v>47180</v>
       </c>
     </row>
     <row r="451">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>10335</v>
+        <v>10458</v>
       </c>
     </row>
     <row r="452">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>9129</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>88263</v>
+        <v>88935</v>
       </c>
     </row>
     <row r="454">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>49087</v>
+        <v>50099</v>
       </c>
     </row>
     <row r="455">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>106433</v>
+        <v>108198</v>
       </c>
     </row>
     <row r="456">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>14311</v>
+        <v>14461</v>
       </c>
     </row>
     <row r="457">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>21945</v>
+        <v>22003</v>
       </c>
     </row>
     <row r="459">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>80448</v>
+        <v>80971</v>
       </c>
     </row>
     <row r="461">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>38287</v>
+        <v>39051</v>
       </c>
     </row>
     <row r="463">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>25865</v>
+        <v>26108</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>12846</v>
+        <v>13055</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>174058</v>
+        <v>176941</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>5640</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="469">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>5760</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="472">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>10817</v>
+        <v>10968</v>
       </c>
     </row>
     <row r="473">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>48472</v>
+        <v>49223</v>
       </c>
     </row>
     <row r="475">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>121740</v>
+        <v>123568</v>
       </c>
     </row>
     <row r="476">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>7009</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="477">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>25748</v>
+        <v>26223</v>
       </c>
     </row>
     <row r="478">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>287484</v>
+        <v>292193</v>
       </c>
     </row>
     <row r="479">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>8968</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>7756</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="481">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20714</v>
+        <v>20742</v>
       </c>
     </row>
     <row r="482">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>45619</v>
+        <v>46201</v>
       </c>
     </row>
     <row r="483">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>21864</v>
+        <v>22209</v>
       </c>
     </row>
     <row r="486">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>11209</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>94394</v>
+        <v>96592</v>
       </c>
     </row>
     <row r="489">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>21373</v>
+        <v>21704</v>
       </c>
     </row>
     <row r="491">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>16595</v>
+        <v>16718</v>
       </c>
     </row>
     <row r="493">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>269679</v>
+        <v>271999</v>
       </c>
     </row>
     <row r="495">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>29123</v>
+        <v>29467</v>
       </c>
     </row>
     <row r="498">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>4520</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="499">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>9386</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="500">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>6259</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="503">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>26379</v>
+        <v>26523</v>
       </c>
     </row>
     <row r="505">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>7805</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="507">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>71094</v>
+        <v>71782</v>
       </c>
     </row>
     <row r="510">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/12</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>7259</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="511">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>12644</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>19091</v>
+        <v>19304</v>
       </c>
     </row>
     <row r="516">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>48672</v>
+        <v>48858</v>
       </c>
     </row>
     <row r="520">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>14736</v>
+        <v>14955</v>
       </c>
     </row>
     <row r="521">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>71161</v>
+        <v>71998</v>
       </c>
     </row>
     <row r="523">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>17881</v>
+        <v>18074</v>
       </c>
     </row>
     <row r="524">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>11092</v>
+        <v>11245</v>
       </c>
     </row>
     <row r="525">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>89293</v>
+        <v>90032</v>
       </c>
     </row>
     <row r="526">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>18261</v>
+        <v>18606</v>
       </c>
     </row>
     <row r="529">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>14088</v>
+        <v>14292</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>21348</v>
+        <v>21533</v>
       </c>
     </row>
     <row r="534">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>12188</v>
+        <v>12301</v>
       </c>
     </row>
     <row r="535">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>13647</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="536">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>21995</v>
+        <v>22080</v>
       </c>
     </row>
     <row r="538">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>16685</v>
+        <v>16857</v>
       </c>
     </row>
     <row r="539">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>1720</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="540">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>109977</v>
+        <v>111970</v>
       </c>
     </row>
     <row r="541">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>110446</v>
+        <v>112028</v>
       </c>
     </row>
     <row r="543">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>8754</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="544">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>15722</v>
+        <v>15777</v>
       </c>
     </row>
     <row r="545">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>42641</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>27295</v>
+        <v>27678</v>
       </c>
     </row>
     <row r="548">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>50171</v>
+        <v>51068</v>
       </c>
     </row>
     <row r="549">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>11367</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="550">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>21535</v>
+        <v>21734</v>
       </c>
     </row>
     <row r="551">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>22547</v>
+        <v>22718</v>
       </c>
     </row>
     <row r="552">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>53728</v>
+        <v>54838</v>
       </c>
     </row>
     <row r="554">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>6110</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="556">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>113115</v>
+        <v>114683</v>
       </c>
     </row>
     <row r="557">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>7964</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="558">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>65283</v>
+        <v>66437</v>
       </c>
     </row>
     <row r="559">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>13030</v>
+        <v>13070</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>68389</v>
+        <v>69434</v>
       </c>
     </row>
     <row r="561">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>2522</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="562">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>14187</v>
+        <v>14250</v>
       </c>
     </row>
     <row r="563">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>7993</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>18562</v>
+        <v>18742</v>
       </c>
     </row>
     <row r="566">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>19632</v>
+        <v>19809</v>
       </c>
     </row>
     <row r="568">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>7908</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>3450</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="571">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>9514</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="573">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>1494</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>341687</v>
+        <v>346507</v>
       </c>
     </row>
     <row r="575">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>117691</v>
+        <v>119850</v>
       </c>
     </row>
     <row r="577">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>1279</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="579">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>15390</v>
+        <v>15620</v>
       </c>
     </row>
     <row r="580">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>89968</v>
+        <v>91941</v>
       </c>
     </row>
     <row r="581">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>9450</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="584">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>8596</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="586">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>141322</v>
+        <v>143809</v>
       </c>
     </row>
     <row r="587">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>28582</v>
+        <v>28644</v>
       </c>
     </row>
     <row r="591">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>37644</v>
+        <v>37954</v>
       </c>
     </row>
     <row r="592">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>25205</v>
+        <v>25306</v>
       </c>
     </row>
     <row r="594">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>15147</v>
+        <v>15278</v>
       </c>
     </row>
     <row r="596">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>220926</v>
+        <v>224320</v>
       </c>
     </row>
     <row r="598">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>26711</v>
+        <v>26772</v>
       </c>
     </row>
     <row r="601">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>26842</v>
+        <v>27593</v>
       </c>
     </row>
     <row r="602">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>23966</v>
+        <v>24698</v>
       </c>
     </row>
     <row r="603">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>1991</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>66090</v>
+        <v>66825</v>
       </c>
     </row>
     <row r="606">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>9023</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="607">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>3915</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="610">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>68270</v>
+        <v>70972</v>
       </c>
     </row>
     <row r="612">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>835</v>
+        <v>867</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>879</v>
+        <v>912</v>
       </c>
     </row>
     <row r="614">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>990</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="615">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>1312</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="616">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>1762</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>908</v>
+        <v>942</v>
       </c>
     </row>
     <row r="618">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>2947</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>3672</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>2583</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="622">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>1028</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="623">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>1114</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="624">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>1965</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="625">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>1734</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="626">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>1172</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="627">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>1298</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="628">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>1224</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="629">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>13079</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>10955</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="632">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>1383</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="639">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="641">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>3856</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="642">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>2797</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="645">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>47298</v>
+        <v>50310</v>
       </c>
     </row>
     <row r="649">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>5556</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>5487</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="655">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>896</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="711">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>1206</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="714">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>2000</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="716">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>1164</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="717">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>1422</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="718">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>1789</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="719">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -24817,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="720">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>441</v>
+        <v>555</v>
       </c>
     </row>
     <row r="721">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>1622</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="723">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>1468</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="724">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>133</v>
+        <v>165</v>
       </c>
     </row>
     <row r="728">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22439</v>
+        <v>22610</v>
       </c>
     </row>
     <row r="15">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>189125</v>
+        <v>192138</v>
       </c>
     </row>
     <row r="25">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>110638</v>
+        <v>112256</v>
       </c>
     </row>
     <row r="32">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5874</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="40">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4729</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="48">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>19205</v>
+        <v>19483</v>
       </c>
     </row>
     <row r="56">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>84371</v>
+        <v>84659</v>
       </c>
     </row>
     <row r="59">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5524</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="64">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>7019</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="72">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>289839</v>
+        <v>292142</v>
       </c>
     </row>
     <row r="76">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>16084</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="77">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>26526</v>
+        <v>26640</v>
       </c>
     </row>
     <row r="80">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>24977</v>
+        <v>25276</v>
       </c>
     </row>
     <row r="84">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>281559</v>
+        <v>287308</v>
       </c>
     </row>
     <row r="86">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>184936</v>
+        <v>187270</v>
       </c>
     </row>
     <row r="88">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>166619</v>
+        <v>169480</v>
       </c>
     </row>
     <row r="89">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>50536</v>
+        <v>51425</v>
       </c>
     </row>
     <row r="129">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>15667</v>
+        <v>15857</v>
       </c>
     </row>
     <row r="147">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>67227</v>
+        <v>68004</v>
       </c>
     </row>
     <row r="163">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>10288</v>
+        <v>10378</v>
       </c>
     </row>
     <row r="201">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>14277</v>
+        <v>14369</v>
       </c>
     </row>
     <row r="205">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>41022</v>
+        <v>41207</v>
       </c>
     </row>
     <row r="233">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>4831</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="237">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>53824</v>
+        <v>54136</v>
       </c>
     </row>
     <row r="256">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1037</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="259">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>15415</v>
+        <v>15622</v>
       </c>
     </row>
     <row r="297">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>39856</v>
+        <v>39934</v>
       </c>
     </row>
     <row r="310">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10850</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="319">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>104086</v>
+        <v>105865</v>
       </c>
     </row>
     <row r="322">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>25338</v>
+        <v>25375</v>
       </c>
     </row>
     <row r="382">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>26453</v>
+        <v>26535</v>
       </c>
     </row>
     <row r="398">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>24919</v>
+        <v>24983</v>
       </c>
     </row>
     <row r="416">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>8398</v>
+        <v>8492</v>
       </c>
     </row>
     <row r="418">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Servicio de Salud Arica</t>
+          <t>Servicio de Salud Arica y Parinacota</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>45677</v>
+        <v>46356</v>
       </c>
     </row>
     <row r="458">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>22003</v>
+        <v>22142</v>
       </c>
     </row>
     <row r="459">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>24018</v>
+        <v>24221</v>
       </c>
     </row>
     <row r="460">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>28692</v>
+        <v>28757</v>
       </c>
     </row>
     <row r="464">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>3680</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="470">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>16552</v>
+        <v>16713</v>
       </c>
     </row>
     <row r="492">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>14212</v>
+        <v>14394</v>
       </c>
     </row>
     <row r="504">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/05/12</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>7300</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="511">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>13679</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="536">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>3754</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="546">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>46581</v>
+        <v>47001</v>
       </c>
     </row>
     <row r="553">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>6142</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="556">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>8028</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="565">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/04/27</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>33468</v>
+        <v>34106</v>
       </c>
     </row>
     <row r="572">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>3940</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="578">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>7807</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="585">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>103521</v>
+        <v>103959</v>
       </c>
     </row>
     <row r="588">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>55102</v>
+        <v>55728</v>
       </c>
     </row>
     <row r="600">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>2584</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="647">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>7764</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="651">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="656">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="657">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="658">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="659">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="660">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="661">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="662">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="663">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="664">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="665">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="666">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="668">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="669">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="670">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="671">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="672">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="673">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="675">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="678">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="679">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="680">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="681">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="682">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="683">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="684">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="685">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="686">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="687">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="688">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="689">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="690">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="692">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="693">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="694">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="695">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="696">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="697">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="698">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="699">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="H699" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="700">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="H700" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="701">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="702">
@@ -24216,7 +24216,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="703">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="704">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="705">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="706">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="707">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="709">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="710">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="713">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="715">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>4771</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="717">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H728"/>
+  <dimension ref="A1:H730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7323</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="18">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>48350</v>
+        <v>49097</v>
       </c>
     </row>
     <row r="23">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1166</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8152</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="46">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13971</v>
+        <v>14080</v>
       </c>
     </row>
     <row r="53">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>11956</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>11434</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="55">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1265</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="58">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>27691</v>
+        <v>27954</v>
       </c>
     </row>
     <row r="63">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>14956</v>
+        <v>15112</v>
       </c>
     </row>
     <row r="100">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>113279</v>
+        <v>115075</v>
       </c>
     </row>
     <row r="101">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>7453</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="122">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>15348</v>
+        <v>15518</v>
       </c>
     </row>
     <row r="150">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>20079</v>
+        <v>20137</v>
       </c>
     </row>
     <row r="171">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>43388</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="185">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19256</v>
+        <v>19298</v>
       </c>
     </row>
     <row r="195">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>9186</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="196">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>1593</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="231">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>41207</v>
+        <v>41372</v>
       </c>
     </row>
     <row r="233">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>54136</v>
+        <v>54287</v>
       </c>
     </row>
     <row r="256">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>7397</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="257">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>201837</v>
+        <v>205052</v>
       </c>
     </row>
     <row r="266">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>8322</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="275">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>2245</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="282">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>47736</v>
+        <v>48220</v>
       </c>
     </row>
     <row r="284">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>13408</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="298">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>12261</v>
+        <v>12293</v>
       </c>
     </row>
     <row r="300">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>13498</v>
+        <v>13594</v>
       </c>
     </row>
     <row r="307">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>145840</v>
+        <v>149269</v>
       </c>
     </row>
     <row r="316">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10899</v>
+        <v>10927</v>
       </c>
     </row>
     <row r="319">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>12990</v>
+        <v>13032</v>
       </c>
     </row>
     <row r="323">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>15056</v>
+        <v>15240</v>
       </c>
     </row>
     <row r="327">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>34316</v>
+        <v>34619</v>
       </c>
     </row>
     <row r="328">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>6499</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="332">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>6485</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="344">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>40508</v>
+        <v>41083</v>
       </c>
     </row>
     <row r="346">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>25375</v>
+        <v>25616</v>
       </c>
     </row>
     <row r="382">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>26535</v>
+        <v>26652</v>
       </c>
     </row>
     <row r="398">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>147957</v>
+        <v>150478</v>
       </c>
     </row>
     <row r="399">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>1766</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="412">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>38616</v>
+        <v>38970</v>
       </c>
     </row>
     <row r="426">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>303217</v>
+        <v>306348</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>67376</v>
+        <v>67558</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>7735</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="438">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>29114</v>
+        <v>29312</v>
       </c>
     </row>
     <row r="443">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>9393</v>
+        <v>9457</v>
       </c>
     </row>
     <row r="453">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20742</v>
+        <v>20797</v>
       </c>
     </row>
     <row r="482">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>287393</v>
+        <v>289159</v>
       </c>
     </row>
     <row r="487">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/19</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>56901</v>
+        <v>57650</v>
       </c>
     </row>
     <row r="494">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>6512</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="501">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>71782</v>
+        <v>71840</v>
       </c>
     </row>
     <row r="510">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>2779</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>26915</v>
+        <v>27314</v>
       </c>
     </row>
     <row r="514">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>23114</v>
+        <v>23170</v>
       </c>
     </row>
     <row r="517">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>6647</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="522">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>6212</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="527">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>60164</v>
+        <v>61740</v>
       </c>
     </row>
     <row r="530">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>28482</v>
+        <v>28750</v>
       </c>
     </row>
     <row r="533">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>13717</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="536">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>15777</v>
+        <v>15791</v>
       </c>
     </row>
     <row r="545">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>13070</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="560">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>13234</v>
+        <v>13406</v>
       </c>
     </row>
     <row r="567">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>105653</v>
+        <v>107614</v>
       </c>
     </row>
     <row r="583">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>7827</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="585">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>103959</v>
+        <v>104378</v>
       </c>
     </row>
     <row r="588">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>28644</v>
+        <v>28895</v>
       </c>
     </row>
     <row r="591">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>161855</v>
+        <v>163175</v>
       </c>
     </row>
     <row r="595">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>15616</v>
+        <v>16307</v>
       </c>
     </row>
     <row r="633">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>2778</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="635">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>2213</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="643">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>2853</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="648">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>1419</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="650">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="696">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>5994</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="717">
@@ -25124,6 +25124,74 @@
       </c>
       <c r="H728" t="n">
         <v>14399</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Servicio Localde Educación Pública Santa Corina</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>AJ036</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>0</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2024/05/30</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Municipalidad de Iquique</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>MU112</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>0</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0</v>
+      </c>
+      <c r="H730" t="n">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5044</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>32422</v>
+        <v>33360</v>
       </c>
     </row>
     <row r="21">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>49097</v>
+        <v>49439</v>
       </c>
     </row>
     <row r="23">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>61924</v>
+        <v>62704</v>
       </c>
     </row>
     <row r="30">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1190</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16625</v>
+        <v>16783</v>
       </c>
     </row>
     <row r="38">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16431</v>
+        <v>16495</v>
       </c>
     </row>
     <row r="45">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>7952</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="50">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>11554</v>
+        <v>11676</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4928</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="60">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>210997</v>
+        <v>214942</v>
       </c>
     </row>
     <row r="69">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9389</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="74">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="75">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>135292</v>
+        <v>141350</v>
       </c>
     </row>
     <row r="109">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>5869</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="118">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>7510</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="122">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9784</v>
+        <v>9879</v>
       </c>
     </row>
     <row r="133">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>36909</v>
+        <v>37399</v>
       </c>
     </row>
     <row r="137">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>5068</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2614</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="139">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1763</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="142">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>23537</v>
+        <v>23779</v>
       </c>
     </row>
     <row r="146">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>187102</v>
+        <v>190060</v>
       </c>
     </row>
     <row r="153">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>40169</v>
+        <v>40831</v>
       </c>
     </row>
     <row r="167">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>24489</v>
+        <v>24853</v>
       </c>
     </row>
     <row r="172">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>6757</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="177">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>6608</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="182">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>3052</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="184">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>58768</v>
+        <v>59063</v>
       </c>
     </row>
     <row r="187">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>31050</v>
+        <v>31270</v>
       </c>
     </row>
     <row r="197">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>2546</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="207">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>91765</v>
+        <v>93516</v>
       </c>
     </row>
     <row r="210">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>34642</v>
+        <v>35085</v>
       </c>
     </row>
     <row r="227">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>24008</v>
+        <v>24031</v>
       </c>
     </row>
     <row r="246">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>22743</v>
+        <v>22863</v>
       </c>
     </row>
     <row r="251">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="254">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>7398</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="257">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>2312</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="276">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>8590</v>
+        <v>8621</v>
       </c>
     </row>
     <row r="287">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>17866</v>
+        <v>18052</v>
       </c>
     </row>
     <row r="306">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>39934</v>
+        <v>39998</v>
       </c>
     </row>
     <row r="310">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>73088</v>
+        <v>74209</v>
       </c>
     </row>
     <row r="315">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>12119</v>
+        <v>12286</v>
       </c>
     </row>
     <row r="326">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1342666</v>
+        <v>1362980</v>
       </c>
     </row>
     <row r="376">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>18954</v>
+        <v>19129</v>
       </c>
     </row>
     <row r="381">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>8555</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="402">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>12984</v>
+        <v>13072</v>
       </c>
     </row>
     <row r="408">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>24983</v>
+        <v>25091</v>
       </c>
     </row>
     <row r="416">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>69242</v>
+        <v>69514</v>
       </c>
     </row>
     <row r="449">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>9123</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="450">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>88935</v>
+        <v>89806</v>
       </c>
     </row>
     <row r="454">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>14461</v>
+        <v>14523</v>
       </c>
     </row>
     <row r="457">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>28757</v>
+        <v>28828</v>
       </c>
     </row>
     <row r="464">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>26108</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>13055</v>
+        <v>13156</v>
       </c>
     </row>
     <row r="467">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>10561</v>
+        <v>10732</v>
       </c>
     </row>
     <row r="471">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20797</v>
+        <v>20923</v>
       </c>
     </row>
     <row r="482">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>3404</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="484">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>21704</v>
+        <v>22037</v>
       </c>
     </row>
     <row r="491">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>271999</v>
+        <v>272221</v>
       </c>
     </row>
     <row r="495">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>16960</v>
+        <v>17065</v>
       </c>
     </row>
     <row r="496">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>6639</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="501">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>6327</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="503">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>116233</v>
+        <v>118144</v>
       </c>
     </row>
     <row r="506">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>2862</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>3764</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="518">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>6324</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="527">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>6409</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="528">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>29596</v>
+        <v>29829</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>22080</v>
+        <v>22081</v>
       </c>
     </row>
     <row r="538">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>2710</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="542">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>8881</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="544">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>51068</v>
+        <v>52679</v>
       </c>
     </row>
     <row r="549">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>22718</v>
+        <v>22783</v>
       </c>
     </row>
     <row r="552">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>6159</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="556">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>13234</v>
+        <v>13299</v>
       </c>
     </row>
     <row r="560">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>34706</v>
+        <v>34806</v>
       </c>
     </row>
     <row r="564">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>25306</v>
+        <v>25411</v>
       </c>
     </row>
     <row r="594">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>2262</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="597">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>24698</v>
+        <v>25488</v>
       </c>
     </row>
     <row r="603">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>3584</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="608">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>1815</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="609">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>1805</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="718">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>1819</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="724">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>451</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10475</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="11">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14424</v>
+        <v>14647</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>75260</v>
+        <v>76693</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7415</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="18">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8615</v>
+        <v>8743</v>
       </c>
     </row>
     <row r="20">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4425</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="22">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>49439</v>
+        <v>49861</v>
       </c>
     </row>
     <row r="23">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>35525</v>
+        <v>36075</v>
       </c>
     </row>
     <row r="24">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>45539</v>
+        <v>46380</v>
       </c>
     </row>
     <row r="26">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7715</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="28">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>20346</v>
+        <v>20588</v>
       </c>
     </row>
     <row r="29">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>62704</v>
+        <v>63490</v>
       </c>
     </row>
     <row r="30">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>37179</v>
+        <v>38514</v>
       </c>
     </row>
     <row r="31">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>112256</v>
+        <v>113902</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>16257</v>
+        <v>16412</v>
       </c>
     </row>
     <row r="33">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>11912</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151385</v>
+        <v>154135</v>
       </c>
     </row>
     <row r="35">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>53992</v>
+        <v>54976</v>
       </c>
     </row>
     <row r="36">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16783</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="38">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24811</v>
+        <v>25027</v>
       </c>
     </row>
     <row r="41">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>79797</v>
+        <v>81083</v>
       </c>
     </row>
     <row r="42">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4286</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="44">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16495</v>
+        <v>16590</v>
       </c>
     </row>
     <row r="45">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28762</v>
+        <v>29059</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/05/18</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4764</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>58215</v>
+        <v>59843</v>
       </c>
     </row>
     <row r="49">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>7976</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="50">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>12076</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="54">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>19483</v>
+        <v>19759</v>
       </c>
     </row>
     <row r="56">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>6286</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="57">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>84659</v>
+        <v>85786</v>
       </c>
     </row>
     <row r="59">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>107094</v>
+        <v>108992</v>
       </c>
     </row>
     <row r="61">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>87354</v>
+        <v>88230</v>
       </c>
     </row>
     <row r="62">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>9302</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="65">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>30440</v>
+        <v>30882</v>
       </c>
     </row>
     <row r="66">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>12737</v>
+        <v>12873</v>
       </c>
     </row>
     <row r="68">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>119715</v>
+        <v>120602</v>
       </c>
     </row>
     <row r="70">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>87190</v>
+        <v>88732</v>
       </c>
     </row>
     <row r="73">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9441</v>
+        <v>9471</v>
       </c>
     </row>
     <row r="74">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>292142</v>
+        <v>294460</v>
       </c>
     </row>
     <row r="76">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>16200</v>
+        <v>16479</v>
       </c>
     </row>
     <row r="77">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>13900</v>
+        <v>14125</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>33021</v>
+        <v>33610</v>
       </c>
     </row>
     <row r="79">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>26640</v>
+        <v>26928</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>63342</v>
+        <v>64117</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>149047</v>
+        <v>151102</v>
       </c>
     </row>
     <row r="82">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>150791</v>
+        <v>151962</v>
       </c>
     </row>
     <row r="83">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>25276</v>
+        <v>25572</v>
       </c>
     </row>
     <row r="84">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>287308</v>
+        <v>293064</v>
       </c>
     </row>
     <row r="86">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>19368</v>
+        <v>19695</v>
       </c>
     </row>
     <row r="87">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>23683</v>
+        <v>24017</v>
       </c>
     </row>
     <row r="90">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>290573</v>
+        <v>295565</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>25847</v>
+        <v>26065</v>
       </c>
     </row>
     <row r="92">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>6781</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="93">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>3690</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="95">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>52708</v>
+        <v>53117</v>
       </c>
     </row>
     <row r="97">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>79915</v>
+        <v>81157</v>
       </c>
     </row>
     <row r="98">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>105996</v>
+        <v>107091</v>
       </c>
     </row>
     <row r="99">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>15112</v>
+        <v>15197</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>104718</v>
+        <v>106435</v>
       </c>
     </row>
     <row r="102">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>68489</v>
+        <v>70262</v>
       </c>
     </row>
     <row r="103">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>125782</v>
+        <v>128027</v>
       </c>
     </row>
     <row r="104">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>58183</v>
+        <v>58736</v>
       </c>
     </row>
     <row r="105">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>9945</v>
+        <v>10069</v>
       </c>
     </row>
     <row r="106">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>10761</v>
+        <v>10918</v>
       </c>
     </row>
     <row r="107">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>111330</v>
+        <v>112301</v>
       </c>
     </row>
     <row r="110">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>4600</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="111">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>174755</v>
+        <v>175863</v>
       </c>
     </row>
     <row r="112">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>22151</v>
+        <v>22335</v>
       </c>
     </row>
     <row r="113">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>83223</v>
+        <v>84538</v>
       </c>
     </row>
     <row r="114">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>10277</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="117">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>162966</v>
+        <v>165992</v>
       </c>
     </row>
     <row r="119">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>12923</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="120">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>7550</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="122">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>18011</v>
+        <v>18162</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7427</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="124">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>6078</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="125">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>22818</v>
+        <v>23181</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>181480</v>
+        <v>184216</v>
       </c>
     </row>
     <row r="127">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>14699</v>
+        <v>14848</v>
       </c>
     </row>
     <row r="128">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>51425</v>
+        <v>52357</v>
       </c>
     </row>
     <row r="129">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>15302</v>
+        <v>15334</v>
       </c>
     </row>
     <row r="130">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>16134</v>
+        <v>16271</v>
       </c>
     </row>
     <row r="131">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9879</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/09</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>10628</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>16594</v>
+        <v>16862</v>
       </c>
     </row>
     <row r="135">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>6814</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="136">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>15707</v>
+        <v>15829</v>
       </c>
     </row>
     <row r="140">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>6247</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="141">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>21996</v>
+        <v>22313</v>
       </c>
     </row>
     <row r="144">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>40831</v>
+        <v>41303</v>
       </c>
     </row>
     <row r="145">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>15857</v>
+        <v>16047</v>
       </c>
     </row>
     <row r="147">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>12280</v>
+        <v>12286</v>
       </c>
     </row>
     <row r="148">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>46427</v>
+        <v>47064</v>
       </c>
     </row>
     <row r="152">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>4983</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>15498</v>
+        <v>15712</v>
       </c>
     </row>
     <row r="155">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>64865</v>
+        <v>65507</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>56971</v>
+        <v>57085</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>14520</v>
+        <v>14747</v>
       </c>
     </row>
     <row r="158">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>34225</v>
+        <v>34886</v>
       </c>
     </row>
     <row r="159">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>4551</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="160">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>7320</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="161">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>68004</v>
+        <v>68798</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>38297</v>
+        <v>39007</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>84289</v>
+        <v>85419</v>
       </c>
     </row>
     <row r="165">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>17566</v>
+        <v>17883</v>
       </c>
     </row>
     <row r="169">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>18555</v>
+        <v>18736</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>20137</v>
+        <v>20257</v>
       </c>
     </row>
     <row r="171">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>39867</v>
+        <v>40264</v>
       </c>
     </row>
     <row r="173">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>14971</v>
+        <v>15197</v>
       </c>
     </row>
     <row r="174">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>11004</v>
+        <v>11078</v>
       </c>
     </row>
     <row r="176">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>78618</v>
+        <v>79344</v>
       </c>
     </row>
     <row r="179">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>16248</v>
+        <v>16455</v>
       </c>
     </row>
     <row r="180">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>13018</v>
+        <v>13258</v>
       </c>
     </row>
     <row r="181">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3110</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="183">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>44048</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>5604</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>59063</v>
+        <v>59331</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>6900</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>13515</v>
+        <v>13781</v>
       </c>
     </row>
     <row r="189">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>20375</v>
+        <v>20718</v>
       </c>
     </row>
     <row r="190">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>23721</v>
+        <v>23785</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>3020</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="192">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>16962</v>
+        <v>17103</v>
       </c>
     </row>
     <row r="194">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19298</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="195">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>31270</v>
+        <v>31372</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>76810</v>
+        <v>77856</v>
       </c>
     </row>
     <row r="198">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>26511</v>
+        <v>26655</v>
       </c>
     </row>
     <row r="200">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>72370</v>
+        <v>73401</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>12915</v>
+        <v>13026</v>
       </c>
     </row>
     <row r="203">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>7131</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="204">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>14369</v>
+        <v>14545</v>
       </c>
     </row>
     <row r="205">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3776</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="206">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>8909</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="208">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>31983</v>
+        <v>32373</v>
       </c>
     </row>
     <row r="209">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>4177</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="211">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>122804</v>
+        <v>123942</v>
       </c>
     </row>
     <row r="212">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>22421</v>
+        <v>22735</v>
       </c>
     </row>
     <row r="213">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>13427</v>
+        <v>13565</v>
       </c>
     </row>
     <row r="214">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>12854</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>55205</v>
+        <v>55196</v>
       </c>
     </row>
     <row r="216">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>6169</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="218">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>7763</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>77713</v>
+        <v>78421</v>
       </c>
     </row>
     <row r="221">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>17958</v>
+        <v>18128</v>
       </c>
     </row>
     <row r="223">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/04/27</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>4860</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="224">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>18845</v>
+        <v>19115</v>
       </c>
     </row>
     <row r="225">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>5783</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="226">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4177</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="228">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>49707</v>
+        <v>50503</v>
       </c>
     </row>
     <row r="230">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>11792</v>
+        <v>11954</v>
       </c>
     </row>
     <row r="232">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>41372</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="233">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>15565</v>
+        <v>15771</v>
       </c>
     </row>
     <row r="234">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3798</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="235">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3323</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="236">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>4850</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="237">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>84953</v>
+        <v>86179</v>
       </c>
     </row>
     <row r="238">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>35505</v>
+        <v>36057</v>
       </c>
     </row>
     <row r="239">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>18784</v>
+        <v>18939</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>13939</v>
+        <v>14243</v>
       </c>
     </row>
     <row r="241">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>11872</v>
+        <v>11963</v>
       </c>
     </row>
     <row r="242">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>11849</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="243">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>17337</v>
+        <v>17476</v>
       </c>
     </row>
     <row r="244">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>27562</v>
+        <v>27961</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>24031</v>
+        <v>24167</v>
       </c>
     </row>
     <row r="246">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>7233</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="247">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>5478</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>48042</v>
+        <v>48375</v>
       </c>
     </row>
     <row r="249">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>14687</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>22863</v>
+        <v>22984</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>15737</v>
+        <v>15926</v>
       </c>
     </row>
     <row r="252">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>9815</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="253">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>13158</v>
+        <v>13381</v>
       </c>
     </row>
     <row r="255">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>54287</v>
+        <v>54804</v>
       </c>
     </row>
     <row r="256">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>16900</v>
+        <v>17151</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1065</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="259">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>75246</v>
+        <v>75659</v>
       </c>
     </row>
     <row r="261">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>45964</v>
+        <v>47044</v>
       </c>
     </row>
     <row r="263">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>125170</v>
+        <v>126991</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>266719</v>
+        <v>270828</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>205052</v>
+        <v>208246</v>
       </c>
     </row>
     <row r="266">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>6094</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="267">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>8851</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="268">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>17377</v>
+        <v>17623</v>
       </c>
     </row>
     <row r="269">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>57952</v>
+        <v>58746</v>
       </c>
     </row>
     <row r="270">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="271">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>9399</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="272">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>33274</v>
+        <v>33467</v>
       </c>
     </row>
     <row r="274">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>43184</v>
+        <v>43666</v>
       </c>
     </row>
     <row r="277">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>138715</v>
+        <v>140963</v>
       </c>
     </row>
     <row r="278">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>35167</v>
+        <v>35682</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>41852</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>28105</v>
+        <v>28157</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>2284</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="282">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>48220</v>
+        <v>48771</v>
       </c>
     </row>
     <row r="284">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>9895</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="285">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>25392</v>
+        <v>25761</v>
       </c>
     </row>
     <row r="286">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>8621</v>
+        <v>8641</v>
       </c>
     </row>
     <row r="287">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>8845</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="288">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>6359</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="290">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>26527</v>
+        <v>26924</v>
       </c>
     </row>
     <row r="291">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>46977</v>
+        <v>47855</v>
       </c>
     </row>
     <row r="292">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>42458</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="293">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>8435</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="294">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>15622</v>
+        <v>15832</v>
       </c>
     </row>
     <row r="297">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>12193</v>
+        <v>12298</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>12293</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="300">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>10401</v>
+        <v>10496</v>
       </c>
     </row>
     <row r="301">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>116172</v>
+        <v>117903</v>
       </c>
     </row>
     <row r="303">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>16996</v>
+        <v>17205</v>
       </c>
     </row>
     <row r="304">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>40420</v>
+        <v>41105</v>
       </c>
     </row>
     <row r="305">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>21284</v>
+        <v>21573</v>
       </c>
     </row>
     <row r="308">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>53949</v>
+        <v>54819</v>
       </c>
     </row>
     <row r="309">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>39998</v>
+        <v>40250</v>
       </c>
     </row>
     <row r="310">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>21138</v>
+        <v>21361</v>
       </c>
     </row>
     <row r="311">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>17273</v>
+        <v>17580</v>
       </c>
     </row>
     <row r="312">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>6695</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="313">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>73809</v>
+        <v>75911</v>
       </c>
     </row>
     <row r="314">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>33744</v>
+        <v>34099</v>
       </c>
     </row>
     <row r="317">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10927</v>
+        <v>10954</v>
       </c>
     </row>
     <row r="319">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>267892</v>
+        <v>271225</v>
       </c>
     </row>
     <row r="320">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>47425</v>
+        <v>48040</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>105865</v>
+        <v>107703</v>
       </c>
     </row>
     <row r="322">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>13032</v>
+        <v>13101</v>
       </c>
     </row>
     <row r="323">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>53028</v>
+        <v>53879</v>
       </c>
     </row>
     <row r="324">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>48445</v>
+        <v>48978</v>
       </c>
     </row>
     <row r="325">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>15240</v>
+        <v>15392</v>
       </c>
     </row>
     <row r="327">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>112275</v>
+        <v>114211</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>12938</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="330">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>38904</v>
+        <v>39262</v>
       </c>
     </row>
     <row r="331">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>14761</v>
+        <v>14933</v>
       </c>
     </row>
     <row r="333">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>10972</v>
+        <v>11087</v>
       </c>
     </row>
     <row r="334">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>25677</v>
+        <v>26091</v>
       </c>
     </row>
     <row r="335">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>179545</v>
+        <v>182252</v>
       </c>
     </row>
     <row r="336">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>7503</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="337">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>27106</v>
+        <v>27511</v>
       </c>
     </row>
     <row r="338">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>193798</v>
+        <v>196948</v>
       </c>
     </row>
     <row r="340">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>10111</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="342">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>59203</v>
+        <v>60076</v>
       </c>
     </row>
     <row r="343">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>6534</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="344">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>9904</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="345">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>17135</v>
+        <v>17406</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>113365</v>
+        <v>114876</v>
       </c>
     </row>
     <row r="348">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>29917</v>
+        <v>30353</v>
       </c>
     </row>
     <row r="349">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>80527</v>
+        <v>81684</v>
       </c>
     </row>
     <row r="351">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>100115</v>
+        <v>101169</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>14082</v>
+        <v>14270</v>
       </c>
     </row>
     <row r="354">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>27230</v>
+        <v>27611</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>12900</v>
+        <v>13064</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>73945</v>
+        <v>74606</v>
       </c>
     </row>
     <row r="357">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>123101</v>
+        <v>125543</v>
       </c>
     </row>
     <row r="358">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>27594</v>
+        <v>27862</v>
       </c>
     </row>
     <row r="359">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>29430</v>
+        <v>29683</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>28703</v>
+        <v>29148</v>
       </c>
     </row>
     <row r="361">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>8500</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="362">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>14525</v>
+        <v>14679</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>1740</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>13834</v>
+        <v>14081</v>
       </c>
     </row>
     <row r="365">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>29133</v>
+        <v>29403</v>
       </c>
     </row>
     <row r="366">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>88142</v>
+        <v>89626</v>
       </c>
     </row>
     <row r="367">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>191728</v>
+        <v>194522</v>
       </c>
     </row>
     <row r="368">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1549</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="369">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>5343</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="371">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>11619</v>
+        <v>11857</v>
       </c>
     </row>
     <row r="372">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>17370</v>
+        <v>17618</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>67192</v>
+        <v>68195</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>15928</v>
+        <v>16062</v>
       </c>
     </row>
     <row r="375">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>2498</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>38048</v>
+        <v>38659</v>
       </c>
     </row>
     <row r="378">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>145361</v>
+        <v>146735</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>5984</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="380">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>25616</v>
+        <v>25770</v>
       </c>
     </row>
     <row r="382">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>1261</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>265642</v>
+        <v>269755</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>22216</v>
+        <v>22402</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>32901</v>
+        <v>33244</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>31563</v>
+        <v>32192</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>291538</v>
+        <v>295327</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>12888</v>
+        <v>13111</v>
       </c>
     </row>
     <row r="389">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>90758</v>
+        <v>92212</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>66352</v>
+        <v>66859</v>
       </c>
     </row>
     <row r="391">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>40382</v>
+        <v>40988</v>
       </c>
     </row>
     <row r="392">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>55884</v>
+        <v>56773</v>
       </c>
     </row>
     <row r="393">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>111241</v>
+        <v>113056</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>26398</v>
+        <v>27078</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/09</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>31258</v>
+        <v>31730</v>
       </c>
     </row>
     <row r="396">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>15302</v>
+        <v>15481</v>
       </c>
     </row>
     <row r="397">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>62163</v>
+        <v>62732</v>
       </c>
     </row>
     <row r="400">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>9328</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="401">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>9605</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>162838</v>
+        <v>165349</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>8381</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>9747</v>
+        <v>9829</v>
       </c>
     </row>
     <row r="405">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>7698</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="406">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>18915</v>
+        <v>19131</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>13072</v>
+        <v>13159</v>
       </c>
     </row>
     <row r="408">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>10652</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>19220</v>
+        <v>19496</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>10408</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="411">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>30409</v>
+        <v>30759</v>
       </c>
     </row>
     <row r="413">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>7005</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="414">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>11340</v>
+        <v>11470</v>
       </c>
     </row>
     <row r="415">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>25091</v>
+        <v>25199</v>
       </c>
     </row>
     <row r="416">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>21009</v>
+        <v>21323</v>
       </c>
     </row>
     <row r="417">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>8492</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="418">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>10174</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="420">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>12377</v>
+        <v>12558</v>
       </c>
     </row>
     <row r="422">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>38110</v>
+        <v>38720</v>
       </c>
     </row>
     <row r="425">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>70588</v>
+        <v>71937</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>93554</v>
+        <v>95398</v>
       </c>
     </row>
     <row r="428">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>28473</v>
+        <v>28915</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>21583</v>
+        <v>21889</v>
       </c>
     </row>
     <row r="430">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>21396</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="432">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>13759</v>
+        <v>14046</v>
       </c>
     </row>
     <row r="433">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>21776</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="434">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>13194</v>
+        <v>13359</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>306348</v>
+        <v>309342</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>67558</v>
+        <v>68125</v>
       </c>
     </row>
     <row r="437">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>43807</v>
+        <v>44422</v>
       </c>
     </row>
     <row r="442">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>3326</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="444">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>35475</v>
+        <v>35963</v>
       </c>
     </row>
     <row r="445">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>38116</v>
+        <v>38661</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>7254</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="447">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>5456</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="448">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>69514</v>
+        <v>70056</v>
       </c>
     </row>
     <row r="449">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>47180</v>
+        <v>47250</v>
       </c>
     </row>
     <row r="451">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>10458</v>
+        <v>10580</v>
       </c>
     </row>
     <row r="452">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>9457</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="453">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>50099</v>
+        <v>51107</v>
       </c>
     </row>
     <row r="455">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>108198</v>
+        <v>110112</v>
       </c>
     </row>
     <row r="456">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>22142</v>
+        <v>22590</v>
       </c>
     </row>
     <row r="459">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>24221</v>
+        <v>24324</v>
       </c>
     </row>
     <row r="460">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>80971</v>
+        <v>81786</v>
       </c>
     </row>
     <row r="461">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>7817</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>39051</v>
+        <v>39822</v>
       </c>
     </row>
     <row r="463">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>9339</v>
+        <v>9479</v>
       </c>
     </row>
     <row r="465">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>26183</v>
+        <v>26294</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>13156</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>176941</v>
+        <v>179351</v>
       </c>
     </row>
     <row r="468">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>5740</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="469">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>3709</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="470">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>5816</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="472">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>10968</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="473">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>7918</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="474">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>49223</v>
+        <v>49991</v>
       </c>
     </row>
     <row r="475">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>123568</v>
+        <v>125332</v>
       </c>
     </row>
     <row r="476">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>7200</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="477">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>26223</v>
+        <v>26704</v>
       </c>
     </row>
     <row r="478">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>292193</v>
+        <v>297108</v>
       </c>
     </row>
     <row r="479">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>7866</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="481">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>46201</v>
+        <v>46792</v>
       </c>
     </row>
     <row r="483">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>12041</v>
+        <v>12182</v>
       </c>
     </row>
     <row r="485">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>22209</v>
+        <v>22558</v>
       </c>
     </row>
     <row r="486">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>11363</v>
+        <v>11519</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>96592</v>
+        <v>98763</v>
       </c>
     </row>
     <row r="489">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>17186</v>
+        <v>17591</v>
       </c>
     </row>
     <row r="490">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>16713</v>
+        <v>16879</v>
       </c>
     </row>
     <row r="492">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>16718</v>
+        <v>16837</v>
       </c>
     </row>
     <row r="493">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/05/19</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>57650</v>
+        <v>58415</v>
       </c>
     </row>
     <row r="494">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>272221</v>
+        <v>274413</v>
       </c>
     </row>
     <row r="495">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>17065</v>
+        <v>17154</v>
       </c>
     </row>
     <row r="496">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>2605</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="497">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>29467</v>
+        <v>29722</v>
       </c>
     </row>
     <row r="498">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>4591</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="499">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>9494</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="500">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>25700</v>
+        <v>26072</v>
       </c>
     </row>
     <row r="502">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>6355</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="503">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>26523</v>
+        <v>26664</v>
       </c>
     </row>
     <row r="505">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>7899</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="507">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>162165</v>
+        <v>164596</v>
       </c>
     </row>
     <row r="508">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>71840</v>
+        <v>72364</v>
       </c>
     </row>
     <row r="510">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>7329</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="511">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>6471</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="512">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>2887</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>27314</v>
+        <v>27853</v>
       </c>
     </row>
     <row r="514">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>12690</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>19304</v>
+        <v>19612</v>
       </c>
     </row>
     <row r="516">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>23170</v>
+        <v>23241</v>
       </c>
     </row>
     <row r="517">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>16369</v>
+        <v>16621</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>48858</v>
+        <v>49329</v>
       </c>
     </row>
     <row r="520">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>14955</v>
+        <v>15172</v>
       </c>
     </row>
     <row r="521">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>18074</v>
+        <v>18267</v>
       </c>
     </row>
     <row r="524">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>11245</v>
+        <v>11402</v>
       </c>
     </row>
     <row r="525">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>90032</v>
+        <v>90739</v>
       </c>
     </row>
     <row r="526">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>18606</v>
+        <v>18711</v>
       </c>
     </row>
     <row r="529">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>61740</v>
+        <v>63309</v>
       </c>
     </row>
     <row r="530">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>14292</v>
+        <v>14493</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>21533</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="534">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>29829</v>
+        <v>29979</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>22081</v>
+        <v>22202</v>
       </c>
     </row>
     <row r="538">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>16857</v>
+        <v>17035</v>
       </c>
     </row>
     <row r="539">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>111970</v>
+        <v>117321</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>2766</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="542">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>112028</v>
+        <v>113616</v>
       </c>
     </row>
     <row r="543">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>43567</v>
+        <v>44507</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>27678</v>
+        <v>28049</v>
       </c>
     </row>
     <row r="548">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>52679</v>
+        <v>53575</v>
       </c>
     </row>
     <row r="549">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>21734</v>
+        <v>21924</v>
       </c>
     </row>
     <row r="551">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>22783</v>
+        <v>22956</v>
       </c>
     </row>
     <row r="552">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>47001</v>
+        <v>47440</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>54838</v>
+        <v>56071</v>
       </c>
     </row>
     <row r="554">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>6185</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="556">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>114683</v>
+        <v>116312</v>
       </c>
     </row>
     <row r="557">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>8117</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="558">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>66437</v>
+        <v>67522</v>
       </c>
     </row>
     <row r="559">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>13299</v>
+        <v>13435</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>69434</v>
+        <v>70458</v>
       </c>
     </row>
     <row r="561">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>2562</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="562">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>14250</v>
+        <v>14314</v>
       </c>
     </row>
     <row r="563">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>34806</v>
+        <v>35056</v>
       </c>
     </row>
     <row r="564">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>8045</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>18742</v>
+        <v>18927</v>
       </c>
     </row>
     <row r="566">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>19809</v>
+        <v>19875</v>
       </c>
     </row>
     <row r="568">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>2589</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="569">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>8037</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>3476</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="571">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>9709</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="573">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>1523</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>346507</v>
+        <v>350969</v>
       </c>
     </row>
     <row r="575">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>119850</v>
+        <v>122049</v>
       </c>
     </row>
     <row r="577">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>4084</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="578">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>1291</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="579">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>15620</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="580">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>91941</v>
+        <v>93938</v>
       </c>
     </row>
     <row r="581">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>9492</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="584">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>7848</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="585">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>8701</v>
+        <v>8803</v>
       </c>
     </row>
     <row r="586">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>143809</v>
+        <v>146306</v>
       </c>
     </row>
     <row r="587">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>62181</v>
+        <v>63002</v>
       </c>
     </row>
     <row r="589">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>37954</v>
+        <v>38282</v>
       </c>
     </row>
     <row r="592">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>15869</v>
+        <v>16099</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>25411</v>
+        <v>25560</v>
       </c>
     </row>
     <row r="594">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>15278</v>
+        <v>15406</v>
       </c>
     </row>
     <row r="596">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>224320</v>
+        <v>227664</v>
       </c>
     </row>
     <row r="598">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>9176</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="599">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>26772</v>
+        <v>26836</v>
       </c>
     </row>
     <row r="601">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>27593</v>
+        <v>28365</v>
       </c>
     </row>
     <row r="602">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>14970</v>
+        <v>15455</v>
       </c>
     </row>
     <row r="604">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>2037</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>66825</v>
+        <v>67506</v>
       </c>
     </row>
     <row r="606">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>9323</v>
+        <v>9623</v>
       </c>
     </row>
     <row r="607">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>4066</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="610">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>9582</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="611">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>867</v>
+        <v>899</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>912</v>
+        <v>946</v>
       </c>
     </row>
     <row r="614">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>1030</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="615">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>1364</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="616">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>1830</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>942</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="618">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>1145</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="619">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>3058</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="620">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>3806</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>2674</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="622">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>1064</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="623">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>1154</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="624">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>2059</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="625">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>1799</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="626">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>1214</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="627">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>1351</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="628">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>1270</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="629">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>13595</v>
+        <v>14130</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>11430</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="632">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>684</v>
+        <v>730</v>
       </c>
     </row>
     <row r="636">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>2539</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="637">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>1413</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>322</v>
+        <v>357</v>
       </c>
     </row>
     <row r="641">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>5648</v>
+        <v>7526</v>
       </c>
     </row>
     <row r="642">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>3238</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="643">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/09</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>1664</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="644">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>3835</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="645">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/09</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>4135</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="646">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>8470</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="652">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>6176</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>5812</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="656">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="657">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="658">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="659">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="660">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="661">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="662">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="663">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="664">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="665">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="666">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="668">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>236</v>
+        <v>275</v>
       </c>
     </row>
     <row r="669">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="670">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="671">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="672">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="673">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="675">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="676">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>232</v>
+        <v>323</v>
       </c>
     </row>
     <row r="677">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="678">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="679">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="680">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="681">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="682">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="683">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="684">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="686">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="687">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="688">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="690">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="691">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="692">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="693">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="694">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="695">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="696">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="697">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="698">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="699">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="H699" t="n">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="700">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="H700" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="701">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="702">
@@ -24216,7 +24216,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="703">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="704">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="705">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="706">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="707">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>164</v>
+        <v>230</v>
       </c>
     </row>
     <row r="708">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="709">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="710">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>1138</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="711">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>1891</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="712">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="713">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>1420</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="714">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="715">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>2509</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="716">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>7233</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="717">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>1859</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="718">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>2213</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="719">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -24817,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="720">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>555</v>
+        <v>669</v>
       </c>
     </row>
     <row r="721">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="H721" t="n">
-        <v>1086</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="722">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>2229</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="723">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>1943</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="724">
@@ -24998,7 +24998,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>2498</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="726">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>1893</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="727">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="728">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22610</v>
+        <v>22781</v>
       </c>
     </row>
     <row r="15">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>192138</v>
+        <v>195195</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7772</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="28">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>70590</v>
+        <v>71788</v>
       </c>
     </row>
     <row r="43">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>22699</v>
+        <v>22908</v>
       </c>
     </row>
     <row r="52">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>14080</v>
+        <v>14226</v>
       </c>
     </row>
     <row r="53">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>6302</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="57">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>4252</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="71">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>169480</v>
+        <v>172388</v>
       </c>
     </row>
     <row r="89">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>8461</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="94">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>13952</v>
+        <v>14138</v>
       </c>
     </row>
     <row r="96">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>115075</v>
+        <v>117042</v>
       </c>
     </row>
     <row r="101">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>25874</v>
+        <v>26026</v>
       </c>
     </row>
     <row r="108">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>4677</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="121">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>14765</v>
+        <v>14957</v>
       </c>
     </row>
     <row r="151">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>57085</v>
+        <v>57266</v>
       </c>
     </row>
     <row r="157">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>9116</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="168">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>40264</v>
+        <v>40450</v>
       </c>
     </row>
     <row r="173">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19751</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="195">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>9196</v>
+        <v>9236</v>
       </c>
     </row>
     <row r="196">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>26655</v>
+        <v>26784</v>
       </c>
     </row>
     <row r="200">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>4873</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="237">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>163042</v>
+        <v>164512</v>
       </c>
     </row>
     <row r="273">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>20960</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="283">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>80795</v>
+        <v>82145</v>
       </c>
     </row>
     <row r="295">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>13594</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="307">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10954</v>
+        <v>10973</v>
       </c>
     </row>
     <row r="319">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>59325</v>
+        <v>60047</v>
       </c>
     </row>
     <row r="339">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>11842</v>
+        <v>11991</v>
       </c>
     </row>
     <row r="341">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>41083</v>
+        <v>41657</v>
       </c>
     </row>
     <row r="346">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>42411</v>
+        <v>42822</v>
       </c>
     </row>
     <row r="352">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>16062</v>
+        <v>16102</v>
       </c>
     </row>
     <row r="375">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>15712</v>
+        <v>15931</v>
       </c>
     </row>
     <row r="419">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>11212</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="421">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>10654</v>
+        <v>10820</v>
       </c>
     </row>
     <row r="424">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>68125</v>
+        <v>68316</v>
       </c>
     </row>
     <row r="437">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>7814</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="438">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>14764</v>
+        <v>15007</v>
       </c>
     </row>
     <row r="440">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>2322</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="441">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>29312</v>
+        <v>29616</v>
       </c>
     </row>
     <row r="443">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>26294</v>
+        <v>26429</v>
       </c>
     </row>
     <row r="466">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>5880</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="472">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>14394</v>
+        <v>14577</v>
       </c>
     </row>
     <row r="504">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>72364</v>
+        <v>72423</v>
       </c>
     </row>
     <row r="510">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>71998</v>
+        <v>72833</v>
       </c>
     </row>
     <row r="523">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>15791</v>
+        <v>15874</v>
       </c>
     </row>
     <row r="545">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>11466</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="550">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>19875</v>
+        <v>20054</v>
       </c>
     </row>
     <row r="568">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>104378</v>
+        <v>106673</v>
       </c>
     </row>
     <row r="588">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>2108</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="590">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>15406</v>
+        <v>15444</v>
       </c>
     </row>
     <row r="596">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>2677</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="647">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>5970</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="655">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="661">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>708</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5936</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="40">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1270</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="58">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5626</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="64">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>7116</v>
+        <v>7215</v>
       </c>
     </row>
     <row r="72">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/20</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9471</v>
+        <v>9493</v>
       </c>
     </row>
     <row r="74">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>187270</v>
+        <v>189645</v>
       </c>
     </row>
     <row r="88">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>8528</v>
+        <v>8566</v>
       </c>
     </row>
     <row r="94">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>15197</v>
+        <v>15262</v>
       </c>
     </row>
     <row r="100">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>14424</v>
+        <v>14655</v>
       </c>
     </row>
     <row r="116">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>3641</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="132">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>15518</v>
+        <v>15690</v>
       </c>
     </row>
     <row r="150">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>57266</v>
+        <v>57891</v>
       </c>
     </row>
     <row r="157">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>1990</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="166">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>9181</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="168">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>16290</v>
+        <v>16518</v>
       </c>
     </row>
     <row r="178">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>23785</v>
+        <v>23846</v>
       </c>
     </row>
     <row r="191">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>16539</v>
+        <v>16778</v>
       </c>
     </row>
     <row r="193">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>9236</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="196">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>32941</v>
+        <v>33274</v>
       </c>
     </row>
     <row r="217">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/22</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>4919</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="224">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>24167</v>
+        <v>24210</v>
       </c>
     </row>
     <row r="246">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>7386</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="260">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1668</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="262">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>8641</v>
+        <v>8678</v>
       </c>
     </row>
     <row r="287">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>152544</v>
+        <v>155245</v>
       </c>
     </row>
     <row r="296">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>10973</v>
+        <v>11021</v>
       </c>
     </row>
     <row r="319">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>13101</v>
+        <v>13143</v>
       </c>
     </row>
     <row r="323">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>6606</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="332">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>8528</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="362">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>22595</v>
+        <v>22703</v>
       </c>
     </row>
     <row r="370">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1362980</v>
+        <v>1406349</v>
       </c>
     </row>
     <row r="376">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>25770</v>
+        <v>25894</v>
       </c>
     </row>
     <row r="382">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>150478</v>
+        <v>152993</v>
       </c>
     </row>
     <row r="399">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>29616</v>
+        <v>29818</v>
       </c>
     </row>
     <row r="443">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>22590</v>
+        <v>22751</v>
       </c>
     </row>
     <row r="459">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>24324</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="460">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>3718</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="470">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20923</v>
+        <v>20950</v>
       </c>
     </row>
     <row r="482">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>289159</v>
+        <v>290960</v>
       </c>
     </row>
     <row r="487">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>23241</v>
+        <v>23389</v>
       </c>
     </row>
     <row r="517">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>28750</v>
+        <v>28931</v>
       </c>
     </row>
     <row r="533">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>29979</v>
+        <v>30066</v>
       </c>
     </row>
     <row r="537">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>2718</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="542">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>15874</v>
+        <v>15928</v>
       </c>
     </row>
     <row r="545">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>3811</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="546">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>22956</v>
+        <v>23022</v>
       </c>
     </row>
     <row r="552">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>8080</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="565">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>13406</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="567">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>3546</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="576">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>163175</v>
+        <v>164608</v>
       </c>
     </row>
     <row r="595">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>70972</v>
+        <v>73696</v>
       </c>
     </row>
     <row r="612">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>4448</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="643">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>3123</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="648">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8268</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="46">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>8045</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="50">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1278</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="58">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>15262</v>
+        <v>15312</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>26026</v>
+        <v>26126</v>
       </c>
     </row>
     <row r="108">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>14848</v>
+        <v>14849</v>
       </c>
     </row>
     <row r="128">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>6376</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="149">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>4507</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="162">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>11078</v>
+        <v>11115</v>
       </c>
     </row>
     <row r="176">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/06/22</t>
+          <t>2024/06/29</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>4979</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="224">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>4891</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="237">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>8333</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="275">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>13269</v>
+        <v>13529</v>
       </c>
     </row>
     <row r="289">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>34619</v>
+        <v>34933</v>
       </c>
     </row>
     <row r="328">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>22703</v>
+        <v>22879</v>
       </c>
     </row>
     <row r="370">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>26652</v>
+        <v>26734</v>
       </c>
     </row>
     <row r="398">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/29</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>38970</v>
+        <v>39356</v>
       </c>
     </row>
     <row r="426">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>144458</v>
+        <v>146609</v>
       </c>
     </row>
     <row r="439">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>29818</v>
+        <v>30070</v>
       </c>
     </row>
     <row r="443">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>46356</v>
+        <v>47032</v>
       </c>
     </row>
     <row r="458">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>7927</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="462">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>9074</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="480">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>16767</v>
+        <v>17238</v>
       </c>
     </row>
     <row r="509">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>28931</v>
+        <v>29017</v>
       </c>
     </row>
     <row r="533">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>12301</v>
+        <v>12555</v>
       </c>
     </row>
     <row r="535">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>22202</v>
+        <v>22307</v>
       </c>
     </row>
     <row r="538">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>13453</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="567">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>34106</v>
+        <v>34728</v>
       </c>
     </row>
     <row r="572">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>107614</v>
+        <v>109589</v>
       </c>
     </row>
     <row r="583">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>7872</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="585">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>28895</v>
+        <v>28936</v>
       </c>
     </row>
     <row r="591">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>2950</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="635">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>50310</v>
+        <v>53307</v>
       </c>
     </row>
     <row r="649">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="H721" t="n">
-        <v>1252</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="722">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5059</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="19">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4476</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="22">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>59843</v>
+        <v>61464</v>
       </c>
     </row>
     <row r="49">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/06/20</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>5997</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="118">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>7576</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="122">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9931</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="133">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>6921</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="136">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>37399</v>
+        <v>37893</v>
       </c>
     </row>
     <row r="137">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2689</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="139">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1775</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="142">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>40450</v>
+        <v>40543</v>
       </c>
     </row>
     <row r="173">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>15197</v>
+        <v>15424</v>
       </c>
     </row>
     <row r="174">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>6861</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="177">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>16518</v>
+        <v>16553</v>
       </c>
     </row>
     <row r="178">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>59331</v>
+        <v>59635</v>
       </c>
     </row>
     <row r="187">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19800</v>
+        <v>19967</v>
       </c>
     </row>
     <row r="195">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>45695</v>
+        <v>47346</v>
       </c>
     </row>
     <row r="199">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>26784</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="200">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>10378</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="201">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>3989</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="222">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4191</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="228">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>195587</v>
+        <v>201470</v>
       </c>
     </row>
     <row r="229">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3856</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="235">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>24210</v>
+        <v>24373</v>
       </c>
     </row>
     <row r="246">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>22984</v>
+        <v>23101</v>
       </c>
     </row>
     <row r="251">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>15926</v>
+        <v>15995</v>
       </c>
     </row>
     <row r="252">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="254">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>2320</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="276">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>35682</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="279">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>28157</v>
+        <v>28208</v>
       </c>
     </row>
     <row r="281">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/07/06</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>12490</v>
+        <v>12608</v>
       </c>
     </row>
     <row r="300">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>149269</v>
+        <v>152615</v>
       </c>
     </row>
     <row r="316">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>12286</v>
+        <v>12454</v>
       </c>
     </row>
     <row r="326">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>15392</v>
+        <v>15447</v>
       </c>
     </row>
     <row r="327">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>1755</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="364">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1574</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="369">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>19129</v>
+        <v>19159</v>
       </c>
     </row>
     <row r="381">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>33244</v>
+        <v>33356</v>
       </c>
     </row>
     <row r="386">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>66859</v>
+        <v>67102</v>
       </c>
     </row>
     <row r="391">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/06/29</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>13159</v>
+        <v>13180</v>
       </c>
     </row>
     <row r="408">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>1775</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="412">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>25199</v>
+        <v>25303</v>
       </c>
     </row>
     <row r="416">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>68316</v>
+        <v>68453</v>
       </c>
     </row>
     <row r="437">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>5591</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="448">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>89806</v>
+        <v>90541</v>
       </c>
     </row>
     <row r="454">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>7964</v>
+        <v>8024</v>
       </c>
     </row>
     <row r="462">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>13210</v>
+        <v>13266</v>
       </c>
     </row>
     <row r="467">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>20950</v>
+        <v>21018</v>
       </c>
     </row>
     <row r="482">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>3462</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="484">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>22037</v>
+        <v>22373</v>
       </c>
     </row>
     <row r="491">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>274413</v>
+        <v>275134</v>
       </c>
     </row>
     <row r="495">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>6800</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="501">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>118144</v>
+        <v>120047</v>
       </c>
     </row>
     <row r="506">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>164596</v>
+        <v>167037</v>
       </c>
     </row>
     <row r="508">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>12792</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="515">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>3849</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="518">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>6512</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="528">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>17035</v>
+        <v>17065</v>
       </c>
     </row>
     <row r="539">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>9008</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="544">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>28049</v>
+        <v>28048</v>
       </c>
     </row>
     <row r="548">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>6232</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="556">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>35056</v>
+        <v>35150</v>
       </c>
     </row>
     <row r="564">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/06/28</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>350969</v>
+        <v>358751</v>
       </c>
     </row>
     <row r="575">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>28936</v>
+        <v>29145</v>
       </c>
     </row>
     <row r="591">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>25560</v>
+        <v>25603</v>
       </c>
     </row>
     <row r="594">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>15444</v>
+        <v>15482</v>
       </c>
     </row>
     <row r="596">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>2584</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="637">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>1517</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="639">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/06/09</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>4279</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="646">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>6430</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>2297</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="724">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>4203</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="61">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>6437</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="68">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>6482</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="72">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>41501</v>
+        <v>41502</v>
       </c>
     </row>
     <row r="105">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>2764</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="124">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>290960</v>
+        <v>292762</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>120047</v>
+        <v>121958</v>
       </c>
     </row>
     <row r="211">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>22525</v>
+        <v>22151</v>
       </c>
     </row>
     <row r="364">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>86913</v>
+        <v>86943</v>
       </c>
     </row>
     <row r="391">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>14458</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="416">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>14627</v>
+        <v>14723</v>
       </c>
     </row>
     <row r="422">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>3770</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="438">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>15110</v>
+        <v>15053</v>
       </c>
     </row>
     <row r="443">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>24417</v>
+        <v>24485</v>
       </c>
     </row>
     <row r="481">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>15612</v>
+        <v>15651</v>
       </c>
     </row>
     <row r="493">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/03</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>16683</v>
+        <v>16719</v>
       </c>
     </row>
     <row r="506">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>5990</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="514">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>1784</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="533">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="534">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>13708</v>
+        <v>13749</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>30255</v>
+        <v>30256</v>
       </c>
     </row>
     <row r="538">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>7272</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="543">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>68873</v>
+        <v>69012</v>
       </c>
     </row>
     <row r="547">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>27057</v>
+        <v>27986</v>
       </c>
     </row>
     <row r="575">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/07/14</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>18236</v>
+        <v>18429</v>
       </c>
     </row>
     <row r="584">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>1279</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="587">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>9556</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="600">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>10462</v>
+        <v>10547</v>
       </c>
     </row>
     <row r="613">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>14523</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="617">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>22428</v>
+        <v>22545</v>
       </c>
     </row>
     <row r="631">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>18249</v>
+        <v>18298</v>
       </c>
     </row>
     <row r="637">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>19967</v>
+        <v>20061</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="640">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>29145</v>
+        <v>29396</v>
       </c>
     </row>
     <row r="661">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>15460</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="670">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">

--- a/consolidado_historico3.xlsx
+++ b/consolidado_historico3.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29361</v>
+        <v>29808</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2524</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="8">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6954</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="62">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>6616</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="64">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>7643</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="66">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>6127</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="69">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>7512</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="70">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6297</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="74">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>21054</v>
+        <v>21389</v>
       </c>
     </row>
     <row r="78">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>10501</v>
+        <v>10963</v>
       </c>
     </row>
     <row r="83">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>6967</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="91">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>14987</v>
+        <v>15212</v>
       </c>
     </row>
     <row r="93">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>3916</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="95">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>10906</v>
+        <v>11044</v>
       </c>
     </row>
     <row r="101">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>41502</v>
+        <v>42160</v>
       </c>
     </row>
     <row r="105">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>3142</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="108">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>775</v>
+        <v>821</v>
       </c>
     </row>
     <row r="109">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>4714</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="112">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>23051</v>
+        <v>23368</v>
       </c>
     </row>
     <row r="119">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>75338</v>
+        <v>76466</v>
       </c>
     </row>
     <row r="121">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>2711</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="131">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>76441</v>
+        <v>76423</v>
       </c>
     </row>
     <row r="132">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>167037</v>
+        <v>169464</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>60047</v>
+        <v>60768</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>9618</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="143">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>29593</v>
+        <v>30035</v>
       </c>
     </row>
     <row r="144">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>393</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>37893</v>
+        <v>38389</v>
       </c>
     </row>
     <row r="170">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>47704</v>
+        <v>48378</v>
       </c>
     </row>
     <row r="179">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>15388</v>
+        <v>15604</v>
       </c>
     </row>
     <row r="180">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>15250</v>
+        <v>15491</v>
       </c>
     </row>
     <row r="192">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1298</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="198">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>17404</v>
+        <v>17661</v>
       </c>
     </row>
     <row r="201">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>63827</v>
+        <v>64661</v>
       </c>
     </row>
     <row r="203">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>61464</v>
+        <v>63163</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>193036</v>
+        <v>196142</v>
       </c>
     </row>
     <row r="221">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>107615</v>
+        <v>109401</v>
       </c>
     </row>
     <row r="227">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>298787</v>
+        <v>304614</v>
       </c>
     </row>
     <row r="230">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>12454</v>
+        <v>12621</v>
       </c>
     </row>
     <row r="239">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>16329</v>
+        <v>16560</v>
       </c>
     </row>
     <row r="241">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>36195</v>
+        <v>36706</v>
       </c>
     </row>
     <row r="242">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>16151</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="244">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>17017</v>
+        <v>17256</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>33829</v>
+        <v>34294</v>
       </c>
     </row>
     <row r="246">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>71499</v>
+        <v>72586</v>
       </c>
     </row>
     <row r="252">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>97353</v>
+        <v>99341</v>
       </c>
     </row>
     <row r="263">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>114853</v>
+        <v>116681</v>
       </c>
     </row>
     <row r="267">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>358751</v>
+        <v>363387</v>
       </c>
     </row>
     <row r="288">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>48133</v>
+        <v>49284</v>
       </c>
     </row>
     <row r="292">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>73209</v>
+        <v>74526</v>
       </c>
     </row>
     <row r="295">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>47235</v>
+        <v>48088</v>
       </c>
     </row>
     <row r="306">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>87679</v>
+        <v>88827</v>
       </c>
     </row>
     <row r="307">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>28356</v>
+        <v>28749</v>
       </c>
     </row>
     <row r="318">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>59538</v>
+        <v>60338</v>
       </c>
     </row>
     <row r="319">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>42930</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="322">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>7100</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="351">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>7737</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>5770</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="354">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>22373</v>
+        <v>22712</v>
       </c>
     </row>
     <row r="356">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>22629</v>
+        <v>22945</v>
       </c>
     </row>
     <row r="360">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>10192</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="366">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>9149</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="369">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>82859</v>
+        <v>84028</v>
       </c>
     </row>
     <row r="372">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>141350</v>
+        <v>143744</v>
       </c>
     </row>
     <row r="375">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>13503</v>
+        <v>13658</v>
       </c>
     </row>
     <row r="389">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>68193</v>
+        <v>68899</v>
       </c>
     </row>
     <row r="398">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>41818</v>
+        <v>42348</v>
       </c>
     </row>
     <row r="403">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>29346</v>
+        <v>29627</v>
       </c>
     </row>
     <row r="408">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>14994</v>
+        <v>15149</v>
       </c>
     </row>
     <row r="415">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>3696</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="424">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>49516</v>
+        <v>50081</v>
       </c>
     </row>
     <row r="425">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/07/13</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>7465</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="426">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>28208</v>
+        <v>28259</v>
       </c>
     </row>
     <row r="428">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>16411</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="430">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>12894</v>
+        <v>12951</v>
       </c>
     </row>
     <row r="434">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>1602</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="437">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>8250</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="439">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>29282</v>
+        <v>29354</v>
       </c>
     </row>
     <row r="442">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>15541</v>
+        <v>15690</v>
       </c>
     </row>
     <row r="444">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>23231</v>
+        <v>23477</v>
       </c>
     </row>
     <row r="446">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>6064</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="448">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>4205</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="453">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>10053</v>
+        <v>10132</v>
       </c>
     </row>
     <row r="457">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>13370</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="463">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>27055</v>
+        <v>27324</v>
       </c>
     </row>
     <row r="467">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>19293</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="470">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>21590</v>
+        <v>21827</v>
       </c>
     </row>
     <row r="471">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>90730</v>
+        <v>90920</v>
       </c>
     </row>
     <row r="473">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>2785</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="475">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>28900</v>
+        <v>28972</v>
       </c>
     </row>
     <row r="479">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>13634</v>
+        <v>13769</v>
       </c>
     </row>
     <row r="480">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>24485</v>
+        <v>24637</v>
       </c>
     </row>
     <row r="481">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="482">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>7782</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="484">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>21261</v>
+        <v>21392</v>
       </c>
     </row>
     <row r="491">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>11112</v>
+        <v>11131</v>
       </c>
     </row>
     <row r="495">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>10081</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="503">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>7528</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>6010</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="514">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>23614</v>
+        <v>23785</v>
       </c>
     </row>
     <row r="516">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>6904</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="517">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>8680</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="520">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>35538</v>
+        <v>35992</v>
       </c>
     </row>
     <row r="522">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>12380</v>
+        <v>12581</v>
       </c>
     </row>
     <row r="523">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>6307</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="524">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>49321</v>
+        <v>49579</v>
       </c>
     </row>
     <row r="539">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>8499</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="541">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>7298</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="543">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>23196</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="550">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>8803</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="556">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>12689</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="557">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>7974</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="558">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>26752</v>
+        <v>26827</v>
       </c>
     </row>
     <row r="559">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>9723</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>5728</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="571">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>33589</v>
+        <v>33870</v>
       </c>
     </row>
     <row r="573">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>23046</v>
+        <v>23455</v>
       </c>
     </row>
     <row r="574">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>21789</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="576">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>20267</v>
+        <v>20332</v>
       </c>
     </row>
     <row r="577">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>2129</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="581">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>108186</v>
+        <v>109274</v>
       </c>
     </row>
     <row r="589">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>8055</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="592">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>31695</v>
+        <v>31938</v>
       </c>
     </row>
     <row r="601">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/11</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>13238</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="615">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>17345</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="616">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>26161</v>
+        <v>26319</v>
       </c>
     </row>
     <row r="619">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>9317</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="620">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>3932</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="623">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>2823</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="629">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>22545</v>
+        <v>22904</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>6356</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="632">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>1215</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="640">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>1617</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="643">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>50640</v>
+        <v>51065</v>
       </c>
     </row>
     <row r="646">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>12313</v>
+        <v>12431</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>14046</v>
+        <v>14313</v>
       </c>
     </row>
     <row r="652">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>9600</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>7615</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="655">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>59910</v>
+        <v>60388</v>
       </c>
     </row>
     <row r="657">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>19351</v>
+        <v>19558</v>
       </c>
     </row>
     <row r="659">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>17758</v>
+        <v>17877</v>
       </c>
     </row>
     <row r="662">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>4973</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="663">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>5073</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="664">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>22667</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="669">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>25475</v>
+        <v>25685</v>
       </c>
     </row>
     <row r="680">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>42257</v>
+        <v>42564</v>
       </c>
     </row>
     <row r="681">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>3433</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="683">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>14280</v>
+        <v>14368</v>
       </c>
     </row>
     <row r="687">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>13316</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="688">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>35401</v>
+        <v>35629</v>
       </c>
     </row>
     <row r="690">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/07/13</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>5076</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="691">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>15155</v>
+        <v>15238</v>
       </c>
     </row>
     <row r="693">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>4295</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="694">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>275373</v>
+        <v>276106</v>
       </c>
     </row>
     <row r="695">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>6243</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="697">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>21906</v>
+        <v>22093</v>
       </c>
     </row>
     <row r="698">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>24629</v>
+        <v>24731</v>
       </c>
     </row>
     <row r="702">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>16957</v>
+        <v>17015</v>
       </c>
     </row>
     <row r="704">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>3646</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="705">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>18843</v>
+        <v>19124</v>
       </c>
     </row>
     <row r="707">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>4772</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="709">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>1770</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="711">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>10451</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="715">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>24026</v>
+        <v>24273</v>
       </c>
     </row>
     <row r="718">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>16088</v>
+        <v>16209</v>
       </c>
     </row>
     <row r="727">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>3766</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="731">
